--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -424,13 +424,13 @@
         <v>0.9683991632111575</v>
       </c>
       <c r="D2">
-        <v>0.9932542745056913</v>
+        <v>0.9932542745056916</v>
       </c>
       <c r="E2">
-        <v>0.9767014373364319</v>
+        <v>0.9767014373364321</v>
       </c>
       <c r="F2">
-        <v>0.9647663755096636</v>
+        <v>0.9647663755096638</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03309591553541</v>
       </c>
       <c r="J2">
-        <v>0.9915679570272161</v>
+        <v>0.9915679570272162</v>
       </c>
       <c r="K2">
         <v>1.004808394931181</v>
       </c>
       <c r="L2">
-        <v>0.9884951925864282</v>
+        <v>0.9884951925864284</v>
       </c>
       <c r="M2">
-        <v>0.9767394184200784</v>
+        <v>0.9767394184200786</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9810478964461887</v>
+        <v>0.9810478964461896</v>
       </c>
       <c r="D3">
         <v>1.003060862126123</v>
       </c>
       <c r="E3">
-        <v>0.9890072967508174</v>
+        <v>0.9890072967508184</v>
       </c>
       <c r="F3">
-        <v>0.9789160079318414</v>
+        <v>0.9789160079318421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037564450571962</v>
+        <v>1.037564450571963</v>
       </c>
       <c r="J3">
         <v>1.002068895746776</v>
@@ -483,10 +483,10 @@
         <v>1.013654727890115</v>
       </c>
       <c r="L3">
-        <v>0.9997827907556583</v>
+        <v>0.9997827907556592</v>
       </c>
       <c r="M3">
-        <v>0.9898259650065826</v>
+        <v>0.9898259650065834</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9887942064735697</v>
+        <v>0.9887942064735694</v>
       </c>
       <c r="D4">
         <v>1.009070697537551</v>
       </c>
       <c r="E4">
-        <v>0.9965495621945927</v>
+        <v>0.9965495621945925</v>
       </c>
       <c r="F4">
-        <v>0.9875895866083894</v>
+        <v>0.9875895866083891</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.008488967064259</v>
       </c>
       <c r="K4">
-        <v>1.019060866194155</v>
+        <v>1.019060866194154</v>
       </c>
       <c r="L4">
         <v>1.00668981012587</v>
       </c>
       <c r="M4">
-        <v>0.9978401386652779</v>
+        <v>0.9978401386652778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9919563484562212</v>
+        <v>0.9919563484562224</v>
       </c>
       <c r="D5">
-        <v>1.011524675116615</v>
+        <v>1.011524675116616</v>
       </c>
       <c r="E5">
-        <v>0.9996297292376813</v>
+        <v>0.9996297292376827</v>
       </c>
       <c r="F5">
-        <v>0.9911323402386564</v>
+        <v>0.9911323402386575</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041384958507579</v>
+        <v>1.04138495850758</v>
       </c>
       <c r="J5">
-        <v>1.011107044246967</v>
+        <v>1.011107044246968</v>
       </c>
       <c r="K5">
-        <v>1.021264806268469</v>
+        <v>1.02126480626847</v>
       </c>
       <c r="L5">
-        <v>1.00950791270872</v>
+        <v>1.009507912708721</v>
       </c>
       <c r="M5">
-        <v>1.001111661289132</v>
+        <v>1.001111661289133</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9924820233003169</v>
+        <v>0.992482023300319</v>
       </c>
       <c r="D6">
-        <v>1.011932657113485</v>
+        <v>1.011932657113487</v>
       </c>
       <c r="E6">
-        <v>1.000141851393436</v>
+        <v>1.000141851393438</v>
       </c>
       <c r="F6">
-        <v>0.9917214148006672</v>
+        <v>0.9917214148006692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041568191938404</v>
+        <v>1.041568191938405</v>
       </c>
       <c r="J6">
-        <v>1.011542114348315</v>
+        <v>1.011542114348317</v>
       </c>
       <c r="K6">
-        <v>1.02163101387958</v>
+        <v>1.021631013879582</v>
       </c>
       <c r="L6">
-        <v>1.00997630856642</v>
+        <v>1.009976308566423</v>
       </c>
       <c r="M6">
-        <v>1.001655524193582</v>
+        <v>1.001655524193584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888368175293625</v>
+        <v>0.9888368175293609</v>
       </c>
       <c r="D7">
-        <v>1.009103763447268</v>
+        <v>1.009103763447267</v>
       </c>
       <c r="E7">
-        <v>0.9965910634926082</v>
+        <v>0.9965910634926062</v>
       </c>
       <c r="F7">
-        <v>0.9876373180658649</v>
+        <v>0.9876373180658632</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040295868310248</v>
+        <v>1.040295868310247</v>
       </c>
       <c r="J7">
-        <v>1.008524257368353</v>
+        <v>1.008524257368352</v>
       </c>
       <c r="K7">
-        <v>1.019090576894526</v>
+        <v>1.019090576894525</v>
       </c>
       <c r="L7">
-        <v>1.006727790884234</v>
+        <v>1.006727790884232</v>
       </c>
       <c r="M7">
-        <v>0.997884223408624</v>
+        <v>0.9978842234086226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9727715399004504</v>
+        <v>0.972771539900449</v>
       </c>
       <c r="D8">
-        <v>0.9966431034529891</v>
+        <v>0.9966431034529876</v>
       </c>
       <c r="E8">
-        <v>0.9809539440458239</v>
+        <v>0.9809539440458229</v>
       </c>
       <c r="F8">
-        <v>0.9696559437204036</v>
+        <v>0.9696559437204021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034644823764474</v>
+        <v>1.034644823764473</v>
       </c>
       <c r="J8">
-        <v>0.9952001849882843</v>
+        <v>0.9952001849882828</v>
       </c>
       <c r="K8">
-        <v>1.007868738863384</v>
+        <v>1.007868738863382</v>
       </c>
       <c r="L8">
-        <v>0.9923982401094071</v>
+        <v>0.9923982401094061</v>
       </c>
       <c r="M8">
-        <v>0.9812632608665832</v>
+        <v>0.9812632608665817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9405089431661814</v>
+        <v>0.9405089431661835</v>
       </c>
       <c r="D9">
-        <v>0.9716728714912485</v>
+        <v>0.9716728714912504</v>
       </c>
       <c r="E9">
-        <v>0.949608755709983</v>
+        <v>0.9496087557099852</v>
       </c>
       <c r="F9">
-        <v>0.9336054387175868</v>
+        <v>0.9336054387175891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023129958050018</v>
+        <v>1.023129958050019</v>
       </c>
       <c r="J9">
-        <v>0.9683527468544099</v>
+        <v>0.9683527468544118</v>
       </c>
       <c r="K9">
-        <v>0.9852428881241575</v>
+        <v>0.9852428881241591</v>
       </c>
       <c r="L9">
-        <v>0.9635759705213189</v>
+        <v>0.9635759705213209</v>
       </c>
       <c r="M9">
-        <v>0.9478761443730099</v>
+        <v>0.9478761443730123</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9152129529488626</v>
+        <v>0.9152129529488602</v>
       </c>
       <c r="D10">
-        <v>0.9521665854548124</v>
+        <v>0.9521665854548105</v>
       </c>
       <c r="E10">
-        <v>0.925084839695593</v>
+        <v>0.9250848396955902</v>
       </c>
       <c r="F10">
-        <v>0.9053618391678735</v>
+        <v>0.9053618391678708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013996608293528</v>
+        <v>1.013996608293527</v>
       </c>
       <c r="J10">
-        <v>0.9472471077257746</v>
+        <v>0.9472471077257721</v>
       </c>
       <c r="K10">
-        <v>0.9674567499343726</v>
+        <v>0.9674567499343707</v>
       </c>
       <c r="L10">
-        <v>0.9409526277146448</v>
+        <v>0.9409526277146425</v>
       </c>
       <c r="M10">
-        <v>0.9216794489834759</v>
+        <v>0.9216794489834733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9029713069660233</v>
+        <v>0.9029713069660231</v>
       </c>
       <c r="D11">
-        <v>0.9427553260636536</v>
+        <v>0.9427553260636535</v>
       </c>
       <c r="E11">
-        <v>0.9132334973184318</v>
+        <v>0.913233497318432</v>
       </c>
       <c r="F11">
-        <v>0.8916917853388545</v>
+        <v>0.8916917853388544</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9370226318491981</v>
       </c>
       <c r="K11">
-        <v>0.9588440409367767</v>
+        <v>0.9588440409367768</v>
       </c>
       <c r="L11">
-        <v>0.9300008082818019</v>
+        <v>0.9300008082818015</v>
       </c>
       <c r="M11">
-        <v>0.9089926515589414</v>
+        <v>0.9089926515589415</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8981804408497936</v>
+        <v>0.8981804408497904</v>
       </c>
       <c r="D12">
-        <v>0.9390778003187076</v>
+        <v>0.9390778003187048</v>
       </c>
       <c r="E12">
-        <v>0.9085983642157281</v>
+        <v>0.908598364215725</v>
       </c>
       <c r="F12">
-        <v>0.8863406319375511</v>
+        <v>0.8863406319375475</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0078144632958</v>
+        <v>1.007814463295799</v>
       </c>
       <c r="J12">
-        <v>0.9330199260288103</v>
+        <v>0.9330199260288073</v>
       </c>
       <c r="K12">
-        <v>0.955473277020661</v>
+        <v>0.9554732770206582</v>
       </c>
       <c r="L12">
-        <v>0.9257144846569986</v>
+        <v>0.9257144846569956</v>
       </c>
       <c r="M12">
-        <v>0.9040255605225828</v>
+        <v>0.9040255605225793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8992201657319895</v>
+        <v>0.8992201657319888</v>
       </c>
       <c r="D13">
-        <v>0.9398756255258999</v>
+        <v>0.9398756255258994</v>
       </c>
       <c r="E13">
-        <v>0.9096041482737872</v>
+        <v>0.9096041482737864</v>
       </c>
       <c r="F13">
-        <v>0.8875020287889525</v>
+        <v>0.8875020287889513</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008192383974148</v>
       </c>
       <c r="J13">
-        <v>0.9338886530864914</v>
+        <v>0.9338886530864907</v>
       </c>
       <c r="K13">
-        <v>0.9562047993274787</v>
+        <v>0.9562047993274783</v>
       </c>
       <c r="L13">
-        <v>0.9266447175492322</v>
+        <v>0.9266447175492315</v>
       </c>
       <c r="M13">
-        <v>0.9051036331331004</v>
+        <v>0.9051036331330993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.902580630369109</v>
+        <v>0.9025806303691102</v>
       </c>
       <c r="D14">
-        <v>0.9424553155976017</v>
+        <v>0.9424553155976026</v>
       </c>
       <c r="E14">
-        <v>0.9128554570553933</v>
+        <v>0.9128554570553951</v>
       </c>
       <c r="F14">
-        <v>0.8912554519462544</v>
+        <v>0.8912554519462562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009413421098097</v>
+        <v>1.009413421098098</v>
       </c>
       <c r="J14">
-        <v>0.9366962498991418</v>
+        <v>0.9366962498991432</v>
       </c>
       <c r="K14">
-        <v>0.9585691656157873</v>
+        <v>0.9585691656157884</v>
       </c>
       <c r="L14">
-        <v>0.9296512779669046</v>
+        <v>0.9296512779669063</v>
       </c>
       <c r="M14">
-        <v>0.9085876492511477</v>
+        <v>0.9085876492511497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904616970467149</v>
+        <v>0.9046169704671498</v>
       </c>
       <c r="D15">
-        <v>0.9440193080615046</v>
+        <v>0.9440193080615056</v>
       </c>
       <c r="E15">
-        <v>0.9148260550174836</v>
+        <v>0.9148260550174839</v>
       </c>
       <c r="F15">
-        <v>0.8935297133006502</v>
+        <v>0.8935297133006507</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010152994606612</v>
+        <v>1.010152994606613</v>
       </c>
       <c r="J15">
-        <v>0.938397415474057</v>
+        <v>0.9383974154740576</v>
       </c>
       <c r="K15">
-        <v>0.9600019100532952</v>
+        <v>0.960001910053296</v>
       </c>
       <c r="L15">
-        <v>0.9314731418825107</v>
+        <v>0.9314731418825112</v>
       </c>
       <c r="M15">
-        <v>0.9106985750083534</v>
+        <v>0.9106985750083542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9159943952207249</v>
+        <v>0.9159943952207217</v>
       </c>
       <c r="D16">
-        <v>0.9527680251406813</v>
+        <v>0.9527680251406788</v>
       </c>
       <c r="E16">
-        <v>0.9258417376290237</v>
+        <v>0.9258417376290201</v>
       </c>
       <c r="F16">
-        <v>0.9062343532881658</v>
+        <v>0.9062343532881624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014279722834622</v>
+        <v>1.014279722834621</v>
       </c>
       <c r="J16">
-        <v>0.9478995942472298</v>
+        <v>0.9478995942472269</v>
       </c>
       <c r="K16">
-        <v>0.9680064840970765</v>
+        <v>0.9680064840970741</v>
       </c>
       <c r="L16">
-        <v>0.9416516845334498</v>
+        <v>0.9416516845334466</v>
       </c>
       <c r="M16">
-        <v>0.9224890761172088</v>
+        <v>0.9224890761172057</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9227564543748886</v>
+        <v>0.9227564543748891</v>
       </c>
       <c r="D17">
-        <v>0.9579756785599437</v>
+        <v>0.9579756785599441</v>
       </c>
       <c r="E17">
-        <v>0.9323932573884217</v>
+        <v>0.9323932573884224</v>
       </c>
       <c r="F17">
-        <v>0.9137842012680779</v>
+        <v>0.9137842012680786</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.01672732305497</v>
       </c>
       <c r="J17">
-        <v>0.9535446247106494</v>
+        <v>0.9535446247106502</v>
       </c>
       <c r="K17">
-        <v>0.9727629775263409</v>
+        <v>0.9727629775263413</v>
       </c>
       <c r="L17">
-        <v>0.9477004738730925</v>
+        <v>0.9477004738730932</v>
       </c>
       <c r="M17">
-        <v>0.9294939749014195</v>
+        <v>0.9294939749014203</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9265805230094046</v>
+        <v>0.9265805230094014</v>
       </c>
       <c r="D18">
-        <v>0.9609231726460264</v>
+        <v>0.9609231726460233</v>
       </c>
       <c r="E18">
-        <v>0.9360997280874693</v>
+        <v>0.9360997280874663</v>
       </c>
       <c r="F18">
-        <v>0.9180536773152436</v>
+        <v>0.9180536773152406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018109532039735</v>
+        <v>1.018109532039733</v>
       </c>
       <c r="J18">
-        <v>0.9567360055213305</v>
+        <v>0.9567360055213274</v>
       </c>
       <c r="K18">
-        <v>0.9754523289327623</v>
+        <v>0.9754523289327592</v>
       </c>
       <c r="L18">
-        <v>0.9511208326154188</v>
+        <v>0.9511208326154157</v>
       </c>
       <c r="M18">
-        <v>0.9334545861498422</v>
+        <v>0.9334545861498391</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9278652840962733</v>
+        <v>0.9278652840962743</v>
       </c>
       <c r="D19">
-        <v>0.9619138206676542</v>
+        <v>0.9619138206676547</v>
       </c>
       <c r="E19">
-        <v>0.9373452174940771</v>
+        <v>0.9373452174940785</v>
       </c>
       <c r="F19">
-        <v>0.9194880852014411</v>
+        <v>0.9194880852014424</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018573566230841</v>
       </c>
       <c r="J19">
-        <v>0.9578080291456105</v>
+        <v>0.9578080291456116</v>
       </c>
       <c r="K19">
-        <v>0.9763557557247179</v>
+        <v>0.9763557557247186</v>
       </c>
       <c r="L19">
-        <v>0.9522698954638387</v>
+        <v>0.95226989546384</v>
       </c>
       <c r="M19">
-        <v>0.9347851013611306</v>
+        <v>0.9347851013611319</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9220436767413031</v>
+        <v>0.9220436767413067</v>
       </c>
       <c r="D20">
-        <v>0.9574264818160265</v>
+        <v>0.9574264818160293</v>
       </c>
       <c r="E20">
-        <v>0.9317025161350031</v>
+        <v>0.9317025161350068</v>
       </c>
       <c r="F20">
-        <v>0.9129884001936712</v>
+        <v>0.9129884001936752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016469527256338</v>
+        <v>1.016469527256339</v>
       </c>
       <c r="J20">
-        <v>0.9529496927009731</v>
+        <v>0.9529496927009765</v>
       </c>
       <c r="K20">
-        <v>0.9722616550462581</v>
+        <v>0.9722616550462606</v>
       </c>
       <c r="L20">
-        <v>0.9470629150065907</v>
+        <v>0.9470629150065943</v>
       </c>
       <c r="M20">
-        <v>0.9287556858511402</v>
+        <v>0.9287556858511443</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9015982941779953</v>
+        <v>0.9015982941779979</v>
       </c>
       <c r="D21">
-        <v>0.9417010500712538</v>
+        <v>0.9417010500712555</v>
       </c>
       <c r="E21">
-        <v>0.9119049437259662</v>
+        <v>0.9119049437259685</v>
       </c>
       <c r="F21">
-        <v>0.8901582898403197</v>
+        <v>0.890158289840322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009056555612276</v>
+        <v>1.009056555612277</v>
       </c>
       <c r="J21">
-        <v>0.9358755603111178</v>
+        <v>0.9358755603111202</v>
       </c>
       <c r="K21">
-        <v>0.9578780067657312</v>
+        <v>0.957878006765733</v>
       </c>
       <c r="L21">
-        <v>0.9287723993163239</v>
+        <v>0.9287723993163264</v>
       </c>
       <c r="M21">
-        <v>0.9075692571994224</v>
+        <v>0.9075692571994245</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8872903040049021</v>
+        <v>0.8872903040048981</v>
       </c>
       <c r="D22">
-        <v>0.9307309850387615</v>
+        <v>0.9307309850387585</v>
       </c>
       <c r="E22">
-        <v>0.8980685228695119</v>
+        <v>0.8980685228695077</v>
       </c>
       <c r="F22">
-        <v>0.8741729868217157</v>
+        <v>0.8741729868217115</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003852843757619</v>
+        <v>1.003852843757618</v>
       </c>
       <c r="J22">
-        <v>0.9239194701420443</v>
+        <v>0.9239194701420406</v>
       </c>
       <c r="K22">
-        <v>0.9478119980868186</v>
+        <v>0.9478119980868157</v>
       </c>
       <c r="L22">
-        <v>0.9159712108601746</v>
+        <v>0.9159712108601705</v>
       </c>
       <c r="M22">
-        <v>0.8927301056324254</v>
+        <v>0.8927301056324213</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8950358967924683</v>
+        <v>0.8950358967924666</v>
       </c>
       <c r="D23">
-        <v>0.9366658188779802</v>
+        <v>0.9366658188779794</v>
       </c>
       <c r="E23">
-        <v>0.9055569553793312</v>
+        <v>0.90555695537933</v>
       </c>
       <c r="F23">
-        <v>0.8828278153385641</v>
+        <v>0.8828278153385625</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006671124071042</v>
       </c>
       <c r="J23">
-        <v>0.930392394088846</v>
+        <v>0.9303923940888446</v>
       </c>
       <c r="K23">
-        <v>0.9532609128968544</v>
+        <v>0.9532609128968537</v>
       </c>
       <c r="L23">
-        <v>0.9229010819357734</v>
+        <v>0.922901081935772</v>
       </c>
       <c r="M23">
-        <v>0.9007646784175846</v>
+        <v>0.900764678417583</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9223661179651459</v>
+        <v>0.9223661179651437</v>
       </c>
       <c r="D24">
-        <v>0.9576749158508537</v>
+        <v>0.9576749158508523</v>
       </c>
       <c r="E24">
-        <v>0.9320149841431936</v>
+        <v>0.9320149841431912</v>
       </c>
       <c r="F24">
-        <v>0.913348399219329</v>
+        <v>0.9133483992193269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016586153214325</v>
+        <v>1.016586153214324</v>
       </c>
       <c r="J24">
-        <v>0.9532188268815668</v>
+        <v>0.9532188268815647</v>
       </c>
       <c r="K24">
-        <v>0.97248844142194</v>
+        <v>0.9724884414219385</v>
       </c>
       <c r="L24">
-        <v>0.9473513303974821</v>
+        <v>0.9473513303974799</v>
       </c>
       <c r="M24">
-        <v>0.9290896701711449</v>
+        <v>0.9290896701711426</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9494155582988186</v>
+        <v>0.9494155582988203</v>
       </c>
       <c r="D25">
-        <v>0.9785573883455777</v>
+        <v>0.9785573883455789</v>
       </c>
       <c r="E25">
-        <v>0.9582545366674062</v>
+        <v>0.9582545366674078</v>
       </c>
       <c r="F25">
-        <v>0.9435524787682348</v>
+        <v>0.9435524787682361</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026326771915497</v>
+        <v>1.026326771915498</v>
       </c>
       <c r="J25">
-        <v>0.9757740296200859</v>
+        <v>0.9757740296200872</v>
       </c>
       <c r="K25">
-        <v>0.9914979508894266</v>
+        <v>0.9914979508894283</v>
       </c>
       <c r="L25">
-        <v>0.9715374175858201</v>
+        <v>0.9715374175858217</v>
       </c>
       <c r="M25">
-        <v>0.9570951990703167</v>
+        <v>0.9570951990703181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -424,13 +424,13 @@
         <v>0.9683991632111575</v>
       </c>
       <c r="D2">
-        <v>0.9932542745056916</v>
+        <v>0.9932542745056913</v>
       </c>
       <c r="E2">
-        <v>0.9767014373364321</v>
+        <v>0.9767014373364319</v>
       </c>
       <c r="F2">
-        <v>0.9647663755096638</v>
+        <v>0.9647663755096636</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03309591553541</v>
       </c>
       <c r="J2">
-        <v>0.9915679570272162</v>
+        <v>0.9915679570272161</v>
       </c>
       <c r="K2">
         <v>1.004808394931181</v>
       </c>
       <c r="L2">
-        <v>0.9884951925864284</v>
+        <v>0.9884951925864282</v>
       </c>
       <c r="M2">
-        <v>0.9767394184200786</v>
+        <v>0.9767394184200784</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,22 +459,22 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9810478964461896</v>
+        <v>0.9810478964461887</v>
       </c>
       <c r="D3">
         <v>1.003060862126123</v>
       </c>
       <c r="E3">
-        <v>0.9890072967508184</v>
+        <v>0.9890072967508174</v>
       </c>
       <c r="F3">
-        <v>0.9789160079318421</v>
+        <v>0.9789160079318414</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037564450571963</v>
+        <v>1.037564450571962</v>
       </c>
       <c r="J3">
         <v>1.002068895746776</v>
@@ -483,10 +483,10 @@
         <v>1.013654727890115</v>
       </c>
       <c r="L3">
-        <v>0.9997827907556592</v>
+        <v>0.9997827907556583</v>
       </c>
       <c r="M3">
-        <v>0.9898259650065834</v>
+        <v>0.9898259650065826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9887942064735694</v>
+        <v>0.9887942064735697</v>
       </c>
       <c r="D4">
         <v>1.009070697537551</v>
       </c>
       <c r="E4">
-        <v>0.9965495621945925</v>
+        <v>0.9965495621945927</v>
       </c>
       <c r="F4">
-        <v>0.9875895866083891</v>
+        <v>0.9875895866083894</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.008488967064259</v>
       </c>
       <c r="K4">
-        <v>1.019060866194154</v>
+        <v>1.019060866194155</v>
       </c>
       <c r="L4">
         <v>1.00668981012587</v>
       </c>
       <c r="M4">
-        <v>0.9978401386652778</v>
+        <v>0.9978401386652779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9919563484562224</v>
+        <v>0.9919563484562212</v>
       </c>
       <c r="D5">
-        <v>1.011524675116616</v>
+        <v>1.011524675116615</v>
       </c>
       <c r="E5">
-        <v>0.9996297292376827</v>
+        <v>0.9996297292376813</v>
       </c>
       <c r="F5">
-        <v>0.9911323402386575</v>
+        <v>0.9911323402386564</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04138495850758</v>
+        <v>1.041384958507579</v>
       </c>
       <c r="J5">
-        <v>1.011107044246968</v>
+        <v>1.011107044246967</v>
       </c>
       <c r="K5">
-        <v>1.02126480626847</v>
+        <v>1.021264806268469</v>
       </c>
       <c r="L5">
-        <v>1.009507912708721</v>
+        <v>1.00950791270872</v>
       </c>
       <c r="M5">
-        <v>1.001111661289133</v>
+        <v>1.001111661289132</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.992482023300319</v>
+        <v>0.9924820233003169</v>
       </c>
       <c r="D6">
-        <v>1.011932657113487</v>
+        <v>1.011932657113485</v>
       </c>
       <c r="E6">
-        <v>1.000141851393438</v>
+        <v>1.000141851393436</v>
       </c>
       <c r="F6">
-        <v>0.9917214148006692</v>
+        <v>0.9917214148006672</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041568191938405</v>
+        <v>1.041568191938404</v>
       </c>
       <c r="J6">
-        <v>1.011542114348317</v>
+        <v>1.011542114348315</v>
       </c>
       <c r="K6">
-        <v>1.021631013879582</v>
+        <v>1.02163101387958</v>
       </c>
       <c r="L6">
-        <v>1.009976308566423</v>
+        <v>1.00997630856642</v>
       </c>
       <c r="M6">
-        <v>1.001655524193584</v>
+        <v>1.001655524193582</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888368175293609</v>
+        <v>0.9888368175293625</v>
       </c>
       <c r="D7">
-        <v>1.009103763447267</v>
+        <v>1.009103763447268</v>
       </c>
       <c r="E7">
-        <v>0.9965910634926062</v>
+        <v>0.9965910634926082</v>
       </c>
       <c r="F7">
-        <v>0.9876373180658632</v>
+        <v>0.9876373180658649</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040295868310247</v>
+        <v>1.040295868310248</v>
       </c>
       <c r="J7">
-        <v>1.008524257368352</v>
+        <v>1.008524257368353</v>
       </c>
       <c r="K7">
-        <v>1.019090576894525</v>
+        <v>1.019090576894526</v>
       </c>
       <c r="L7">
-        <v>1.006727790884232</v>
+        <v>1.006727790884234</v>
       </c>
       <c r="M7">
-        <v>0.9978842234086226</v>
+        <v>0.997884223408624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.972771539900449</v>
+        <v>0.9727715399004504</v>
       </c>
       <c r="D8">
-        <v>0.9966431034529876</v>
+        <v>0.9966431034529891</v>
       </c>
       <c r="E8">
-        <v>0.9809539440458229</v>
+        <v>0.9809539440458239</v>
       </c>
       <c r="F8">
-        <v>0.9696559437204021</v>
+        <v>0.9696559437204036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034644823764473</v>
+        <v>1.034644823764474</v>
       </c>
       <c r="J8">
-        <v>0.9952001849882828</v>
+        <v>0.9952001849882843</v>
       </c>
       <c r="K8">
-        <v>1.007868738863382</v>
+        <v>1.007868738863384</v>
       </c>
       <c r="L8">
-        <v>0.9923982401094061</v>
+        <v>0.9923982401094071</v>
       </c>
       <c r="M8">
-        <v>0.9812632608665817</v>
+        <v>0.9812632608665832</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9405089431661835</v>
+        <v>0.9405089431661814</v>
       </c>
       <c r="D9">
-        <v>0.9716728714912504</v>
+        <v>0.9716728714912485</v>
       </c>
       <c r="E9">
-        <v>0.9496087557099852</v>
+        <v>0.949608755709983</v>
       </c>
       <c r="F9">
-        <v>0.9336054387175891</v>
+        <v>0.9336054387175868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023129958050019</v>
+        <v>1.023129958050018</v>
       </c>
       <c r="J9">
-        <v>0.9683527468544118</v>
+        <v>0.9683527468544099</v>
       </c>
       <c r="K9">
-        <v>0.9852428881241591</v>
+        <v>0.9852428881241575</v>
       </c>
       <c r="L9">
-        <v>0.9635759705213209</v>
+        <v>0.9635759705213189</v>
       </c>
       <c r="M9">
-        <v>0.9478761443730123</v>
+        <v>0.9478761443730099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9152129529488602</v>
+        <v>0.9152129529488626</v>
       </c>
       <c r="D10">
-        <v>0.9521665854548105</v>
+        <v>0.9521665854548124</v>
       </c>
       <c r="E10">
-        <v>0.9250848396955902</v>
+        <v>0.925084839695593</v>
       </c>
       <c r="F10">
-        <v>0.9053618391678708</v>
+        <v>0.9053618391678735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013996608293527</v>
+        <v>1.013996608293528</v>
       </c>
       <c r="J10">
-        <v>0.9472471077257721</v>
+        <v>0.9472471077257746</v>
       </c>
       <c r="K10">
-        <v>0.9674567499343707</v>
+        <v>0.9674567499343726</v>
       </c>
       <c r="L10">
-        <v>0.9409526277146425</v>
+        <v>0.9409526277146448</v>
       </c>
       <c r="M10">
-        <v>0.9216794489834733</v>
+        <v>0.9216794489834759</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9029713069660231</v>
+        <v>0.9029713069660233</v>
       </c>
       <c r="D11">
-        <v>0.9427553260636535</v>
+        <v>0.9427553260636536</v>
       </c>
       <c r="E11">
-        <v>0.913233497318432</v>
+        <v>0.9132334973184318</v>
       </c>
       <c r="F11">
-        <v>0.8916917853388544</v>
+        <v>0.8916917853388545</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9370226318491981</v>
       </c>
       <c r="K11">
-        <v>0.9588440409367768</v>
+        <v>0.9588440409367767</v>
       </c>
       <c r="L11">
-        <v>0.9300008082818015</v>
+        <v>0.9300008082818019</v>
       </c>
       <c r="M11">
-        <v>0.9089926515589415</v>
+        <v>0.9089926515589414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8981804408497904</v>
+        <v>0.8981804408497936</v>
       </c>
       <c r="D12">
-        <v>0.9390778003187048</v>
+        <v>0.9390778003187076</v>
       </c>
       <c r="E12">
-        <v>0.908598364215725</v>
+        <v>0.9085983642157281</v>
       </c>
       <c r="F12">
-        <v>0.8863406319375475</v>
+        <v>0.8863406319375511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007814463295799</v>
+        <v>1.0078144632958</v>
       </c>
       <c r="J12">
-        <v>0.9330199260288073</v>
+        <v>0.9330199260288103</v>
       </c>
       <c r="K12">
-        <v>0.9554732770206582</v>
+        <v>0.955473277020661</v>
       </c>
       <c r="L12">
-        <v>0.9257144846569956</v>
+        <v>0.9257144846569986</v>
       </c>
       <c r="M12">
-        <v>0.9040255605225793</v>
+        <v>0.9040255605225828</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8992201657319888</v>
+        <v>0.8992201657319895</v>
       </c>
       <c r="D13">
-        <v>0.9398756255258994</v>
+        <v>0.9398756255258999</v>
       </c>
       <c r="E13">
-        <v>0.9096041482737864</v>
+        <v>0.9096041482737872</v>
       </c>
       <c r="F13">
-        <v>0.8875020287889513</v>
+        <v>0.8875020287889525</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008192383974148</v>
       </c>
       <c r="J13">
-        <v>0.9338886530864907</v>
+        <v>0.9338886530864914</v>
       </c>
       <c r="K13">
-        <v>0.9562047993274783</v>
+        <v>0.9562047993274787</v>
       </c>
       <c r="L13">
-        <v>0.9266447175492315</v>
+        <v>0.9266447175492322</v>
       </c>
       <c r="M13">
-        <v>0.9051036331330993</v>
+        <v>0.9051036331331004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9025806303691102</v>
+        <v>0.902580630369109</v>
       </c>
       <c r="D14">
-        <v>0.9424553155976026</v>
+        <v>0.9424553155976017</v>
       </c>
       <c r="E14">
-        <v>0.9128554570553951</v>
+        <v>0.9128554570553933</v>
       </c>
       <c r="F14">
-        <v>0.8912554519462562</v>
+        <v>0.8912554519462544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009413421098098</v>
+        <v>1.009413421098097</v>
       </c>
       <c r="J14">
-        <v>0.9366962498991432</v>
+        <v>0.9366962498991418</v>
       </c>
       <c r="K14">
-        <v>0.9585691656157884</v>
+        <v>0.9585691656157873</v>
       </c>
       <c r="L14">
-        <v>0.9296512779669063</v>
+        <v>0.9296512779669046</v>
       </c>
       <c r="M14">
-        <v>0.9085876492511497</v>
+        <v>0.9085876492511477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9046169704671498</v>
+        <v>0.904616970467149</v>
       </c>
       <c r="D15">
-        <v>0.9440193080615056</v>
+        <v>0.9440193080615046</v>
       </c>
       <c r="E15">
-        <v>0.9148260550174839</v>
+        <v>0.9148260550174836</v>
       </c>
       <c r="F15">
-        <v>0.8935297133006507</v>
+        <v>0.8935297133006502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010152994606613</v>
+        <v>1.010152994606612</v>
       </c>
       <c r="J15">
-        <v>0.9383974154740576</v>
+        <v>0.938397415474057</v>
       </c>
       <c r="K15">
-        <v>0.960001910053296</v>
+        <v>0.9600019100532952</v>
       </c>
       <c r="L15">
-        <v>0.9314731418825112</v>
+        <v>0.9314731418825107</v>
       </c>
       <c r="M15">
-        <v>0.9106985750083542</v>
+        <v>0.9106985750083534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9159943952207217</v>
+        <v>0.9159943952207249</v>
       </c>
       <c r="D16">
-        <v>0.9527680251406788</v>
+        <v>0.9527680251406813</v>
       </c>
       <c r="E16">
-        <v>0.9258417376290201</v>
+        <v>0.9258417376290237</v>
       </c>
       <c r="F16">
-        <v>0.9062343532881624</v>
+        <v>0.9062343532881658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014279722834621</v>
+        <v>1.014279722834622</v>
       </c>
       <c r="J16">
-        <v>0.9478995942472269</v>
+        <v>0.9478995942472298</v>
       </c>
       <c r="K16">
-        <v>0.9680064840970741</v>
+        <v>0.9680064840970765</v>
       </c>
       <c r="L16">
-        <v>0.9416516845334466</v>
+        <v>0.9416516845334498</v>
       </c>
       <c r="M16">
-        <v>0.9224890761172057</v>
+        <v>0.9224890761172088</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9227564543748891</v>
+        <v>0.9227564543748886</v>
       </c>
       <c r="D17">
-        <v>0.9579756785599441</v>
+        <v>0.9579756785599437</v>
       </c>
       <c r="E17">
-        <v>0.9323932573884224</v>
+        <v>0.9323932573884217</v>
       </c>
       <c r="F17">
-        <v>0.9137842012680786</v>
+        <v>0.9137842012680779</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.01672732305497</v>
       </c>
       <c r="J17">
-        <v>0.9535446247106502</v>
+        <v>0.9535446247106494</v>
       </c>
       <c r="K17">
-        <v>0.9727629775263413</v>
+        <v>0.9727629775263409</v>
       </c>
       <c r="L17">
-        <v>0.9477004738730932</v>
+        <v>0.9477004738730925</v>
       </c>
       <c r="M17">
-        <v>0.9294939749014203</v>
+        <v>0.9294939749014195</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9265805230094014</v>
+        <v>0.9265805230094046</v>
       </c>
       <c r="D18">
-        <v>0.9609231726460233</v>
+        <v>0.9609231726460264</v>
       </c>
       <c r="E18">
-        <v>0.9360997280874663</v>
+        <v>0.9360997280874693</v>
       </c>
       <c r="F18">
-        <v>0.9180536773152406</v>
+        <v>0.9180536773152436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018109532039733</v>
+        <v>1.018109532039735</v>
       </c>
       <c r="J18">
-        <v>0.9567360055213274</v>
+        <v>0.9567360055213305</v>
       </c>
       <c r="K18">
-        <v>0.9754523289327592</v>
+        <v>0.9754523289327623</v>
       </c>
       <c r="L18">
-        <v>0.9511208326154157</v>
+        <v>0.9511208326154188</v>
       </c>
       <c r="M18">
-        <v>0.9334545861498391</v>
+        <v>0.9334545861498422</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9278652840962743</v>
+        <v>0.9278652840962733</v>
       </c>
       <c r="D19">
-        <v>0.9619138206676547</v>
+        <v>0.9619138206676542</v>
       </c>
       <c r="E19">
-        <v>0.9373452174940785</v>
+        <v>0.9373452174940771</v>
       </c>
       <c r="F19">
-        <v>0.9194880852014424</v>
+        <v>0.9194880852014411</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018573566230841</v>
       </c>
       <c r="J19">
-        <v>0.9578080291456116</v>
+        <v>0.9578080291456105</v>
       </c>
       <c r="K19">
-        <v>0.9763557557247186</v>
+        <v>0.9763557557247179</v>
       </c>
       <c r="L19">
-        <v>0.95226989546384</v>
+        <v>0.9522698954638387</v>
       </c>
       <c r="M19">
-        <v>0.9347851013611319</v>
+        <v>0.9347851013611306</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9220436767413067</v>
+        <v>0.9220436767413031</v>
       </c>
       <c r="D20">
-        <v>0.9574264818160293</v>
+        <v>0.9574264818160265</v>
       </c>
       <c r="E20">
-        <v>0.9317025161350068</v>
+        <v>0.9317025161350031</v>
       </c>
       <c r="F20">
-        <v>0.9129884001936752</v>
+        <v>0.9129884001936712</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016469527256339</v>
+        <v>1.016469527256338</v>
       </c>
       <c r="J20">
-        <v>0.9529496927009765</v>
+        <v>0.9529496927009731</v>
       </c>
       <c r="K20">
-        <v>0.9722616550462606</v>
+        <v>0.9722616550462581</v>
       </c>
       <c r="L20">
-        <v>0.9470629150065943</v>
+        <v>0.9470629150065907</v>
       </c>
       <c r="M20">
-        <v>0.9287556858511443</v>
+        <v>0.9287556858511402</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9015982941779979</v>
+        <v>0.9015982941779953</v>
       </c>
       <c r="D21">
-        <v>0.9417010500712555</v>
+        <v>0.9417010500712538</v>
       </c>
       <c r="E21">
-        <v>0.9119049437259685</v>
+        <v>0.9119049437259662</v>
       </c>
       <c r="F21">
-        <v>0.890158289840322</v>
+        <v>0.8901582898403197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009056555612277</v>
+        <v>1.009056555612276</v>
       </c>
       <c r="J21">
-        <v>0.9358755603111202</v>
+        <v>0.9358755603111178</v>
       </c>
       <c r="K21">
-        <v>0.957878006765733</v>
+        <v>0.9578780067657312</v>
       </c>
       <c r="L21">
-        <v>0.9287723993163264</v>
+        <v>0.9287723993163239</v>
       </c>
       <c r="M21">
-        <v>0.9075692571994245</v>
+        <v>0.9075692571994224</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8872903040048981</v>
+        <v>0.8872903040049021</v>
       </c>
       <c r="D22">
-        <v>0.9307309850387585</v>
+        <v>0.9307309850387615</v>
       </c>
       <c r="E22">
-        <v>0.8980685228695077</v>
+        <v>0.8980685228695119</v>
       </c>
       <c r="F22">
-        <v>0.8741729868217115</v>
+        <v>0.8741729868217157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003852843757618</v>
+        <v>1.003852843757619</v>
       </c>
       <c r="J22">
-        <v>0.9239194701420406</v>
+        <v>0.9239194701420443</v>
       </c>
       <c r="K22">
-        <v>0.9478119980868157</v>
+        <v>0.9478119980868186</v>
       </c>
       <c r="L22">
-        <v>0.9159712108601705</v>
+        <v>0.9159712108601746</v>
       </c>
       <c r="M22">
-        <v>0.8927301056324213</v>
+        <v>0.8927301056324254</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8950358967924666</v>
+        <v>0.8950358967924683</v>
       </c>
       <c r="D23">
-        <v>0.9366658188779794</v>
+        <v>0.9366658188779802</v>
       </c>
       <c r="E23">
-        <v>0.90555695537933</v>
+        <v>0.9055569553793312</v>
       </c>
       <c r="F23">
-        <v>0.8828278153385625</v>
+        <v>0.8828278153385641</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006671124071042</v>
       </c>
       <c r="J23">
-        <v>0.9303923940888446</v>
+        <v>0.930392394088846</v>
       </c>
       <c r="K23">
-        <v>0.9532609128968537</v>
+        <v>0.9532609128968544</v>
       </c>
       <c r="L23">
-        <v>0.922901081935772</v>
+        <v>0.9229010819357734</v>
       </c>
       <c r="M23">
-        <v>0.900764678417583</v>
+        <v>0.9007646784175846</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9223661179651437</v>
+        <v>0.9223661179651459</v>
       </c>
       <c r="D24">
-        <v>0.9576749158508523</v>
+        <v>0.9576749158508537</v>
       </c>
       <c r="E24">
-        <v>0.9320149841431912</v>
+        <v>0.9320149841431936</v>
       </c>
       <c r="F24">
-        <v>0.9133483992193269</v>
+        <v>0.913348399219329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016586153214324</v>
+        <v>1.016586153214325</v>
       </c>
       <c r="J24">
-        <v>0.9532188268815647</v>
+        <v>0.9532188268815668</v>
       </c>
       <c r="K24">
-        <v>0.9724884414219385</v>
+        <v>0.97248844142194</v>
       </c>
       <c r="L24">
-        <v>0.9473513303974799</v>
+        <v>0.9473513303974821</v>
       </c>
       <c r="M24">
-        <v>0.9290896701711426</v>
+        <v>0.9290896701711449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9494155582988203</v>
+        <v>0.9494155582988186</v>
       </c>
       <c r="D25">
-        <v>0.9785573883455789</v>
+        <v>0.9785573883455777</v>
       </c>
       <c r="E25">
-        <v>0.9582545366674078</v>
+        <v>0.9582545366674062</v>
       </c>
       <c r="F25">
-        <v>0.9435524787682361</v>
+        <v>0.9435524787682348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026326771915498</v>
+        <v>1.026326771915497</v>
       </c>
       <c r="J25">
-        <v>0.9757740296200872</v>
+        <v>0.9757740296200859</v>
       </c>
       <c r="K25">
-        <v>0.9914979508894283</v>
+        <v>0.9914979508894266</v>
       </c>
       <c r="L25">
-        <v>0.9715374175858217</v>
+        <v>0.9715374175858201</v>
       </c>
       <c r="M25">
-        <v>0.9570951990703181</v>
+        <v>0.9570951990703167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9683991632111575</v>
+        <v>0.968500293724084</v>
       </c>
       <c r="D2">
-        <v>0.9932542745056913</v>
+        <v>0.9933347177800476</v>
       </c>
       <c r="E2">
-        <v>0.9767014373364319</v>
+        <v>0.9768023623443419</v>
       </c>
       <c r="F2">
-        <v>0.9647663755096636</v>
+        <v>0.964870742181458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03309591553541</v>
+        <v>1.03313671292109</v>
       </c>
       <c r="J2">
-        <v>0.9915679570272161</v>
+        <v>0.9916657825040501</v>
       </c>
       <c r="K2">
-        <v>1.004808394931181</v>
+        <v>1.00488769829101</v>
       </c>
       <c r="L2">
-        <v>0.9884951925864282</v>
+        <v>0.9885946252435078</v>
       </c>
       <c r="M2">
-        <v>0.9767394184200784</v>
+        <v>0.9768421927923463</v>
+      </c>
+      <c r="N2">
+        <v>0.9890438766145961</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9810478964461887</v>
+        <v>0.9811277307441717</v>
       </c>
       <c r="D3">
-        <v>1.003060862126123</v>
+        <v>1.003124489989549</v>
       </c>
       <c r="E3">
-        <v>0.9890072967508174</v>
+        <v>0.9890870544945474</v>
       </c>
       <c r="F3">
-        <v>0.9789160079318414</v>
+        <v>0.9789982001285884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037564450571962</v>
+        <v>1.037596764349694</v>
       </c>
       <c r="J3">
-        <v>1.002068895746776</v>
+        <v>1.002146437178429</v>
       </c>
       <c r="K3">
-        <v>1.013654727890115</v>
+        <v>1.013717547879884</v>
       </c>
       <c r="L3">
-        <v>0.9997827907556583</v>
+        <v>0.9998614994561734</v>
       </c>
       <c r="M3">
-        <v>0.9898259650065826</v>
+        <v>0.9899070479424938</v>
+      </c>
+      <c r="N3">
+        <v>0.9972123617291577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9887942064735697</v>
+        <v>0.9888617057786536</v>
       </c>
       <c r="D4">
-        <v>1.009070697537551</v>
+        <v>1.009124555830992</v>
       </c>
       <c r="E4">
-        <v>0.9965495621945927</v>
+        <v>0.9966170386403014</v>
       </c>
       <c r="F4">
-        <v>0.9875895866083894</v>
+        <v>0.9876589818465443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040280971920645</v>
+        <v>1.040308347821239</v>
       </c>
       <c r="J4">
-        <v>1.008488967064259</v>
+        <v>1.008554686370409</v>
       </c>
       <c r="K4">
-        <v>1.019060866194155</v>
+        <v>1.019114088901453</v>
       </c>
       <c r="L4">
-        <v>1.00668981012587</v>
+        <v>1.006756465236716</v>
       </c>
       <c r="M4">
-        <v>0.9978401386652779</v>
+        <v>0.9979086700153869</v>
+      </c>
+      <c r="N4">
+        <v>1.002186761830524</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9919563484562212</v>
+        <v>0.9920189544526631</v>
       </c>
       <c r="D5">
-        <v>1.011524675116615</v>
+        <v>1.011574651666568</v>
       </c>
       <c r="E5">
-        <v>0.9996297292376813</v>
+        <v>0.9996923293805901</v>
       </c>
       <c r="F5">
-        <v>0.9911323402386564</v>
+        <v>0.9911966685574585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041384958507579</v>
+        <v>1.04141037044235</v>
       </c>
       <c r="J5">
-        <v>1.011107044246967</v>
+        <v>1.011168058315395</v>
       </c>
       <c r="K5">
-        <v>1.021264806268469</v>
+        <v>1.021314211245485</v>
       </c>
       <c r="L5">
-        <v>1.00950791270872</v>
+        <v>1.009569775672009</v>
       </c>
       <c r="M5">
-        <v>1.001111661289132</v>
+        <v>1.001175215876586</v>
+      </c>
+      <c r="N5">
+        <v>1.004210573045449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9924820233003169</v>
+        <v>0.9925438235000122</v>
       </c>
       <c r="D6">
-        <v>1.011932657113485</v>
+        <v>1.011981994108361</v>
       </c>
       <c r="E6">
-        <v>1.000141851393436</v>
+        <v>1.000203648305794</v>
       </c>
       <c r="F6">
-        <v>0.9917214148006672</v>
+        <v>0.9917849092632994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041568191938404</v>
+        <v>1.041593280176864</v>
       </c>
       <c r="J6">
-        <v>1.011542114348315</v>
+        <v>1.011602352740569</v>
       </c>
       <c r="K6">
-        <v>1.02163101387958</v>
+        <v>1.021679789599754</v>
       </c>
       <c r="L6">
-        <v>1.00997630856642</v>
+        <v>1.010037381813703</v>
       </c>
       <c r="M6">
-        <v>1.001655524193582</v>
+        <v>1.001718259375117</v>
+      </c>
+      <c r="N6">
+        <v>1.004546609818974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888368175293625</v>
+        <v>0.9889042503628609</v>
       </c>
       <c r="D7">
-        <v>1.009103763447268</v>
+        <v>1.009157569033851</v>
       </c>
       <c r="E7">
-        <v>0.9965910634926082</v>
+        <v>0.9966584737141038</v>
       </c>
       <c r="F7">
-        <v>0.9876373180658649</v>
+        <v>0.9877066444371572</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040295868310248</v>
+        <v>1.040323217551673</v>
       </c>
       <c r="J7">
-        <v>1.008524257368353</v>
+        <v>1.00858991281682</v>
       </c>
       <c r="K7">
-        <v>1.019090576894526</v>
+        <v>1.019143747781359</v>
       </c>
       <c r="L7">
-        <v>1.006727790884234</v>
+        <v>1.006794380937895</v>
       </c>
       <c r="M7">
-        <v>0.997884223408624</v>
+        <v>0.9979526871441462</v>
+      </c>
+      <c r="N7">
+        <v>1.002214060563756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9727715399004504</v>
+        <v>0.9728651373798005</v>
       </c>
       <c r="D8">
-        <v>0.9966431034529891</v>
+        <v>0.9967176060880427</v>
       </c>
       <c r="E8">
-        <v>0.9809539440458239</v>
+        <v>0.9810473868458659</v>
       </c>
       <c r="F8">
-        <v>0.9696559437204036</v>
+        <v>0.9697524551472446</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034644823764474</v>
+        <v>1.034682626128569</v>
       </c>
       <c r="J8">
-        <v>0.9952001849882843</v>
+        <v>0.9952908534067801</v>
       </c>
       <c r="K8">
-        <v>1.007868738863384</v>
+        <v>1.007942223831149</v>
       </c>
       <c r="L8">
-        <v>0.9923982401094071</v>
+        <v>0.9924903544092357</v>
       </c>
       <c r="M8">
-        <v>0.9812632608665832</v>
+        <v>0.9813583592980881</v>
+      </c>
+      <c r="N8">
+        <v>0.9918735340649206</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9405089431661814</v>
+        <v>0.9406630918783734</v>
       </c>
       <c r="D9">
-        <v>0.9716728714912485</v>
+        <v>0.9717949023105878</v>
       </c>
       <c r="E9">
-        <v>0.949608755709983</v>
+        <v>0.9497621848024214</v>
       </c>
       <c r="F9">
-        <v>0.9336054387175868</v>
+        <v>0.9337654366947516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023129958050018</v>
+        <v>1.02319166608815</v>
       </c>
       <c r="J9">
-        <v>0.9683527468544099</v>
+        <v>0.9685004245665041</v>
       </c>
       <c r="K9">
-        <v>0.9852428881241575</v>
+        <v>0.9853627871004027</v>
       </c>
       <c r="L9">
-        <v>0.9635759705213189</v>
+        <v>0.9637265544900102</v>
       </c>
       <c r="M9">
-        <v>0.9478761443730099</v>
+        <v>0.9480330406292277</v>
+      </c>
+      <c r="N9">
+        <v>0.9708692275847737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9152129529488626</v>
+        <v>0.9154245368524977</v>
       </c>
       <c r="D10">
-        <v>0.9521665854548124</v>
+        <v>0.9523332519578687</v>
       </c>
       <c r="E10">
-        <v>0.925084839695593</v>
+        <v>0.9252948590098335</v>
       </c>
       <c r="F10">
-        <v>0.9053618391678735</v>
+        <v>0.9055827453963707</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013996608293528</v>
+        <v>1.014080670498489</v>
       </c>
       <c r="J10">
-        <v>0.9472471077257746</v>
+        <v>0.9474478739952151</v>
       </c>
       <c r="K10">
-        <v>0.9674567499343726</v>
+        <v>0.9676199957763874</v>
       </c>
       <c r="L10">
-        <v>0.9409526277146448</v>
+        <v>0.9411579943987086</v>
       </c>
       <c r="M10">
-        <v>0.9216794489834759</v>
+        <v>0.9218951716602175</v>
+      </c>
+      <c r="N10">
+        <v>0.9542415798829726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9029713069660233</v>
+        <v>0.9032148646674325</v>
       </c>
       <c r="D11">
-        <v>0.9427553260636536</v>
+        <v>0.9429466684536884</v>
       </c>
       <c r="E11">
-        <v>0.9132334973184318</v>
+        <v>0.9134749032165518</v>
       </c>
       <c r="F11">
-        <v>0.8916917853388545</v>
+        <v>0.8919468658320345</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009555330436509</v>
+        <v>1.009651719179911</v>
       </c>
       <c r="J11">
-        <v>0.9370226318491981</v>
+        <v>0.9372525954681321</v>
       </c>
       <c r="K11">
-        <v>0.9588440409367767</v>
+        <v>0.9590311693175674</v>
       </c>
       <c r="L11">
-        <v>0.9300008082818019</v>
+        <v>0.9302364262753722</v>
       </c>
       <c r="M11">
-        <v>0.9089926515589414</v>
+        <v>0.9092412101437655</v>
+      </c>
+      <c r="N11">
+        <v>0.9461603362476102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8981804408497936</v>
+        <v>0.898437404654571</v>
       </c>
       <c r="D12">
-        <v>0.9390778003187076</v>
+        <v>0.9392794546877499</v>
       </c>
       <c r="E12">
-        <v>0.9085983642157281</v>
+        <v>0.908852907198494</v>
       </c>
       <c r="F12">
-        <v>0.8863406319375511</v>
+        <v>0.8866100945544583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0078144632958</v>
+        <v>1.007915997570579</v>
       </c>
       <c r="J12">
-        <v>0.9330199260288103</v>
+        <v>0.9332620636399693</v>
       </c>
       <c r="K12">
-        <v>0.955473277020661</v>
+        <v>0.9556703711857312</v>
       </c>
       <c r="L12">
-        <v>0.9257144846569986</v>
+        <v>0.9259627396037389</v>
       </c>
       <c r="M12">
-        <v>0.9040255605225828</v>
+        <v>0.904287905025395</v>
+      </c>
+      <c r="N12">
+        <v>0.9429930162240204</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8992201657319895</v>
+        <v>0.8994741741819384</v>
       </c>
       <c r="D13">
-        <v>0.9398756255258999</v>
+        <v>0.9400750083201664</v>
       </c>
       <c r="E13">
-        <v>0.9096041482737872</v>
+        <v>0.9098557963221764</v>
       </c>
       <c r="F13">
-        <v>0.8875020287889525</v>
+        <v>0.8877683182485843</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008192383974148</v>
+        <v>1.008292785036396</v>
       </c>
       <c r="J13">
-        <v>0.9338886530864914</v>
+        <v>0.934128110257015</v>
       </c>
       <c r="K13">
-        <v>0.9562047993274787</v>
+        <v>0.9563996988767092</v>
       </c>
       <c r="L13">
-        <v>0.9266447175492322</v>
+        <v>0.926890188976499</v>
       </c>
       <c r="M13">
-        <v>0.9051036331331004</v>
+        <v>0.9053629376288406</v>
+      </c>
+      <c r="N13">
+        <v>0.94368059305159</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.902580630369109</v>
+        <v>0.9028252613605815</v>
       </c>
       <c r="D14">
-        <v>0.9424553155976017</v>
+        <v>0.9426474842898501</v>
       </c>
       <c r="E14">
-        <v>0.9128554570553933</v>
+        <v>0.9130979151881067</v>
       </c>
       <c r="F14">
-        <v>0.8912554519462544</v>
+        <v>0.8915116827313112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009413421098097</v>
+        <v>1.009510222272471</v>
       </c>
       <c r="J14">
-        <v>0.9366962498991418</v>
+        <v>0.9369271895929144</v>
       </c>
       <c r="K14">
-        <v>0.9585691656157873</v>
+        <v>0.9587570928614469</v>
       </c>
       <c r="L14">
-        <v>0.9296512779669046</v>
+        <v>0.9298879086583053</v>
       </c>
       <c r="M14">
-        <v>0.9085876492511477</v>
+        <v>0.9088373111375974</v>
+      </c>
+      <c r="N14">
+        <v>0.9459021429752935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904616970467149</v>
+        <v>0.9048560447848834</v>
       </c>
       <c r="D15">
-        <v>0.9440193080615046</v>
+        <v>0.9442071974074541</v>
       </c>
       <c r="E15">
-        <v>0.9148260550174836</v>
+        <v>0.9150630645638402</v>
       </c>
       <c r="F15">
-        <v>0.8935297133006502</v>
+        <v>0.8937799909217397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010152994606612</v>
+        <v>1.010247659609464</v>
       </c>
       <c r="J15">
-        <v>0.938397415474057</v>
+        <v>0.9386232990617567</v>
       </c>
       <c r="K15">
-        <v>0.9600019100532952</v>
+        <v>0.9601856994614913</v>
       </c>
       <c r="L15">
-        <v>0.9314731418825107</v>
+        <v>0.9317045277095345</v>
       </c>
       <c r="M15">
-        <v>0.9106985750083534</v>
+        <v>0.9109425255931939</v>
+      </c>
+      <c r="N15">
+        <v>0.9472477517390494</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9159943952207249</v>
+        <v>0.9162040406788643</v>
       </c>
       <c r="D16">
-        <v>0.9527680251406813</v>
+        <v>0.9529331918187964</v>
       </c>
       <c r="E16">
-        <v>0.9258417376290237</v>
+        <v>0.926049851532031</v>
       </c>
       <c r="F16">
-        <v>0.9062343532881658</v>
+        <v>0.9064531936049788</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014279722834622</v>
+        <v>1.014363035157489</v>
       </c>
       <c r="J16">
-        <v>0.9478995942472298</v>
+        <v>0.9480985826705121</v>
       </c>
       <c r="K16">
-        <v>0.9680064840970765</v>
+        <v>0.9681682766275286</v>
       </c>
       <c r="L16">
-        <v>0.9416516845334498</v>
+        <v>0.9418552118692903</v>
       </c>
       <c r="M16">
-        <v>0.9224890761172088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9227028100827448</v>
+      </c>
+      <c r="N16">
+        <v>0.9547567883237504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9227564543748886</v>
+        <v>0.9229497964016423</v>
       </c>
       <c r="D17">
-        <v>0.9579756785599437</v>
+        <v>0.9581282129643249</v>
       </c>
       <c r="E17">
-        <v>0.9323932573884217</v>
+        <v>0.9325853335944064</v>
       </c>
       <c r="F17">
-        <v>0.9137842012680779</v>
+        <v>0.9139856937823054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01672732305497</v>
+        <v>1.016804316252593</v>
       </c>
       <c r="J17">
-        <v>0.9535446247106494</v>
+        <v>0.9537286235789683</v>
       </c>
       <c r="K17">
-        <v>0.9727629775263409</v>
+        <v>0.9729125211968426</v>
       </c>
       <c r="L17">
-        <v>0.9477004738730925</v>
+        <v>0.9478885058325561</v>
       </c>
       <c r="M17">
-        <v>0.9294939749014195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9296909917942925</v>
+      </c>
+      <c r="N17">
+        <v>0.9592113302991399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9265805230094046</v>
+        <v>0.9267650006035039</v>
       </c>
       <c r="D18">
-        <v>0.9609231726460264</v>
+        <v>0.9610688250250757</v>
       </c>
       <c r="E18">
-        <v>0.9360997280874693</v>
+        <v>0.9362830750660479</v>
       </c>
       <c r="F18">
-        <v>0.9180536773152436</v>
+        <v>0.9182457586632556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018109532039735</v>
+        <v>1.018183080053745</v>
       </c>
       <c r="J18">
-        <v>0.9567360055213305</v>
+        <v>0.9569118258843212</v>
       </c>
       <c r="K18">
-        <v>0.9754523289327623</v>
+        <v>0.9755951929297922</v>
       </c>
       <c r="L18">
-        <v>0.9511208326154188</v>
+        <v>0.9513004198905655</v>
       </c>
       <c r="M18">
-        <v>0.9334545861498422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9336425205710115</v>
+      </c>
+      <c r="N18">
+        <v>0.9617273055366932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9278652840962733</v>
+        <v>0.9280468382835909</v>
       </c>
       <c r="D19">
-        <v>0.9619138206676542</v>
+        <v>0.9620572012717707</v>
       </c>
       <c r="E19">
-        <v>0.9373452174940771</v>
+        <v>0.9375256841901646</v>
       </c>
       <c r="F19">
-        <v>0.9194880852014411</v>
+        <v>0.9196770661489898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018573566230841</v>
+        <v>1.018645976569578</v>
       </c>
       <c r="J19">
-        <v>0.9578080291456105</v>
+        <v>0.9579811477894827</v>
       </c>
       <c r="K19">
-        <v>0.9763557557247179</v>
+        <v>0.9764964136904876</v>
       </c>
       <c r="L19">
-        <v>0.9522698954638387</v>
+        <v>0.9524466946448109</v>
       </c>
       <c r="M19">
-        <v>0.9347851013611306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9349700415313312</v>
+      </c>
+      <c r="N19">
+        <v>0.9625720446218058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9220436767413031</v>
+        <v>0.922238698684558</v>
       </c>
       <c r="D20">
-        <v>0.9574264818160265</v>
+        <v>0.9575803193522688</v>
       </c>
       <c r="E20">
-        <v>0.9317025161350031</v>
+        <v>0.9318962458892026</v>
       </c>
       <c r="F20">
-        <v>0.9129884001936712</v>
+        <v>0.9131916779272078</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016469527256338</v>
+        <v>1.016547172603215</v>
       </c>
       <c r="J20">
-        <v>0.9529496927009731</v>
+        <v>0.9531352392009503</v>
       </c>
       <c r="K20">
-        <v>0.9722616550462581</v>
+        <v>0.9724124630029718</v>
       </c>
       <c r="L20">
-        <v>0.9470629150065907</v>
+        <v>0.9472525457552134</v>
       </c>
       <c r="M20">
-        <v>0.9287556858511402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9289544245273625</v>
+      </c>
+      <c r="N20">
+        <v>0.9587421111119822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9015982941779953</v>
+        <v>0.9018456392840777</v>
       </c>
       <c r="D21">
-        <v>0.9417010500712538</v>
+        <v>0.9418953077314841</v>
       </c>
       <c r="E21">
-        <v>0.9119049437259662</v>
+        <v>0.9121500623510629</v>
       </c>
       <c r="F21">
-        <v>0.8901582898403197</v>
+        <v>0.8904174303498501</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009056555612276</v>
+        <v>1.009154399357246</v>
       </c>
       <c r="J21">
-        <v>0.9358755603111178</v>
+        <v>0.9361089671636715</v>
       </c>
       <c r="K21">
-        <v>0.9578780067657312</v>
+        <v>0.95806795337629</v>
       </c>
       <c r="L21">
-        <v>0.9287723993163239</v>
+        <v>0.9290115901245335</v>
       </c>
       <c r="M21">
-        <v>0.9075692571994224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9078217094015967</v>
+      </c>
+      <c r="N21">
+        <v>0.9452528572925689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8872903040049021</v>
+        <v>0.8875798735145985</v>
       </c>
       <c r="D22">
-        <v>0.9307309850387615</v>
+        <v>0.9309576399952871</v>
       </c>
       <c r="E22">
-        <v>0.8980685228695119</v>
+        <v>0.8983549647442187</v>
       </c>
       <c r="F22">
-        <v>0.8741729868217157</v>
+        <v>0.8744775543977606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003852843757619</v>
+        <v>1.003966840487662</v>
       </c>
       <c r="J22">
-        <v>0.9239194701420443</v>
+        <v>0.9241910625433511</v>
       </c>
       <c r="K22">
-        <v>0.9478119980868186</v>
+        <v>0.9480332214512545</v>
       </c>
       <c r="L22">
-        <v>0.9159712108601746</v>
+        <v>0.9162500942590042</v>
       </c>
       <c r="M22">
-        <v>0.8927301056324254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8930260240149553</v>
+      </c>
+      <c r="N22">
+        <v>0.9357855081857239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8950358967924683</v>
+        <v>0.8953019597036249</v>
       </c>
       <c r="D23">
-        <v>0.9366658188779802</v>
+        <v>0.9368744612085722</v>
       </c>
       <c r="E23">
-        <v>0.9055569553793312</v>
+        <v>0.9058204075588276</v>
       </c>
       <c r="F23">
-        <v>0.8828278153385641</v>
+        <v>0.8831070568886232</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006671124071042</v>
+        <v>1.006776143474958</v>
       </c>
       <c r="J23">
-        <v>0.930392394088846</v>
+        <v>0.9306427729556481</v>
       </c>
       <c r="K23">
-        <v>0.9532609128968544</v>
+        <v>0.9534647558852842</v>
       </c>
       <c r="L23">
-        <v>0.9229010819357734</v>
+        <v>0.9231578990364191</v>
       </c>
       <c r="M23">
-        <v>0.9007646784175846</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9010363859171494</v>
+      </c>
+      <c r="N23">
+        <v>0.9409128829232256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9223661179651459</v>
+        <v>0.9225603788640057</v>
       </c>
       <c r="D24">
-        <v>0.9576749158508537</v>
+        <v>0.9578281630785601</v>
       </c>
       <c r="E24">
-        <v>0.9320149841431936</v>
+        <v>0.932207964827691</v>
       </c>
       <c r="F24">
-        <v>0.913348399219329</v>
+        <v>0.913550868137304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016586153214325</v>
+        <v>1.016663503150716</v>
       </c>
       <c r="J24">
-        <v>0.9532188268815668</v>
+        <v>0.9534036723551219</v>
       </c>
       <c r="K24">
-        <v>0.97248844142194</v>
+        <v>0.9726386766874939</v>
       </c>
       <c r="L24">
-        <v>0.9473513303974821</v>
+        <v>0.9475402369161845</v>
       </c>
       <c r="M24">
-        <v>0.9290896701711449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9292876288147089</v>
+      </c>
+      <c r="N24">
+        <v>0.95895438300985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9494155582988186</v>
+        <v>0.9495517572259624</v>
       </c>
       <c r="D25">
-        <v>0.9785573883455777</v>
+        <v>0.9786653823026963</v>
       </c>
       <c r="E25">
-        <v>0.9582545366674062</v>
+        <v>0.9583902200291698</v>
       </c>
       <c r="F25">
-        <v>0.9435524787682348</v>
+        <v>0.9436935759633093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026326771915497</v>
+        <v>1.026381432194599</v>
       </c>
       <c r="J25">
-        <v>0.9757740296200859</v>
+        <v>0.9759049273083698</v>
       </c>
       <c r="K25">
-        <v>0.9914979508894266</v>
+        <v>0.9916041728362828</v>
       </c>
       <c r="L25">
-        <v>0.9715374175858201</v>
+        <v>0.9716707509603443</v>
       </c>
       <c r="M25">
-        <v>0.9570951990703167</v>
+        <v>0.9572337525458068</v>
+      </c>
+      <c r="N25">
+        <v>0.9766943161708631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.00639982309643</v>
+      </c>
+      <c r="D2">
+        <v>1.021528018819043</v>
+      </c>
+      <c r="E2">
+        <v>1.014532772275551</v>
+      </c>
+      <c r="F2">
+        <v>0.9835922941986697</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.041931265014971</v>
+      </c>
+      <c r="J2">
+        <v>1.02839078709278</v>
+      </c>
+      <c r="K2">
+        <v>1.032695365087146</v>
+      </c>
+      <c r="L2">
+        <v>1.025793288271238</v>
+      </c>
+      <c r="M2">
+        <v>0.9952850482077481</v>
+      </c>
+      <c r="N2">
+        <v>1.029851219968524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.015450048927855</v>
+      </c>
+      <c r="D3">
+        <v>1.028706001015327</v>
+      </c>
+      <c r="E3">
+        <v>1.023060611513994</v>
+      </c>
+      <c r="F3">
+        <v>0.9954979888225574</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045621537443362</v>
+      </c>
+      <c r="J3">
+        <v>1.035528211385261</v>
+      </c>
+      <c r="K3">
+        <v>1.038984299684353</v>
+      </c>
+      <c r="L3">
+        <v>1.033406690917001</v>
+      </c>
+      <c r="M3">
+        <v>1.006188799676373</v>
+      </c>
+      <c r="N3">
+        <v>1.036998780222174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.021079693573298</v>
+      </c>
+      <c r="D4">
+        <v>1.033172663473453</v>
+      </c>
+      <c r="E4">
+        <v>1.028370267822589</v>
+      </c>
+      <c r="F4">
+        <v>1.002893915743114</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.047901985597907</v>
+      </c>
+      <c r="J4">
+        <v>1.039959128393373</v>
+      </c>
+      <c r="K4">
+        <v>1.042886553345375</v>
+      </c>
+      <c r="L4">
+        <v>1.038137934213886</v>
+      </c>
+      <c r="M4">
+        <v>1.012957538783933</v>
+      </c>
+      <c r="N4">
+        <v>1.041435989640671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.023396102192521</v>
+      </c>
+      <c r="D5">
+        <v>1.035010808475978</v>
+      </c>
+      <c r="E5">
+        <v>1.030556130367192</v>
+      </c>
+      <c r="F5">
+        <v>1.005935311512078</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.048836631430489</v>
+      </c>
+      <c r="J5">
+        <v>1.041780142198202</v>
+      </c>
+      <c r="K5">
+        <v>1.044489796211703</v>
+      </c>
+      <c r="L5">
+        <v>1.040083526657581</v>
+      </c>
+      <c r="M5">
+        <v>1.015739810059122</v>
+      </c>
+      <c r="N5">
+        <v>1.043259589493975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.023782193689913</v>
+      </c>
+      <c r="D6">
+        <v>1.035317196561872</v>
+      </c>
+      <c r="E6">
+        <v>1.030920526706001</v>
+      </c>
+      <c r="F6">
+        <v>1.006442153136871</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.048992196684723</v>
+      </c>
+      <c r="J6">
+        <v>1.042083535046757</v>
+      </c>
+      <c r="K6">
+        <v>1.044756876366888</v>
+      </c>
+      <c r="L6">
+        <v>1.040407742595194</v>
+      </c>
+      <c r="M6">
+        <v>1.016203396362291</v>
+      </c>
+      <c r="N6">
+        <v>1.043563413195176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.021110838316138</v>
+      </c>
+      <c r="D7">
+        <v>1.033197376946046</v>
+      </c>
+      <c r="E7">
+        <v>1.028399652993573</v>
+      </c>
+      <c r="F7">
+        <v>1.002934814438164</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.047914566848968</v>
+      </c>
+      <c r="J7">
+        <v>1.039983621016255</v>
+      </c>
+      <c r="K7">
+        <v>1.042908118991217</v>
+      </c>
+      <c r="L7">
+        <v>1.038164097864727</v>
+      </c>
+      <c r="M7">
+        <v>1.012994957814871</v>
+      </c>
+      <c r="N7">
+        <v>1.041460517045886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.009507790584454</v>
+      </c>
+      <c r="D8">
+        <v>1.023992601798203</v>
+      </c>
+      <c r="E8">
+        <v>1.017460245233462</v>
+      </c>
+      <c r="F8">
+        <v>0.9876833843802324</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.043201710958326</v>
+      </c>
+      <c r="J8">
+        <v>1.030843741545666</v>
+      </c>
+      <c r="K8">
+        <v>1.034857096901419</v>
+      </c>
+      <c r="L8">
+        <v>1.028408788426332</v>
+      </c>
+      <c r="M8">
+        <v>0.9990328178478671</v>
+      </c>
+      <c r="N8">
+        <v>1.032307657898091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9871221524655343</v>
+      </c>
+      <c r="D9">
+        <v>1.006254501365298</v>
+      </c>
+      <c r="E9">
+        <v>0.9964000123272424</v>
+      </c>
+      <c r="F9">
+        <v>0.9581413586370312</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.033987756002055</v>
+      </c>
+      <c r="J9">
+        <v>1.013138002551203</v>
+      </c>
+      <c r="K9">
+        <v>1.01924691218893</v>
+      </c>
+      <c r="L9">
+        <v>1.009551768102057</v>
+      </c>
+      <c r="M9">
+        <v>0.9719521481319624</v>
+      </c>
+      <c r="N9">
+        <v>1.014576774723379</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9705487298501936</v>
+      </c>
+      <c r="D10">
+        <v>0.9931477553938363</v>
+      </c>
+      <c r="E10">
+        <v>0.9808454292475998</v>
+      </c>
+      <c r="F10">
+        <v>0.936125763708712</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.027087942060957</v>
+      </c>
+      <c r="J10">
+        <v>0.9999816120670282</v>
+      </c>
+      <c r="K10">
+        <v>1.007641841279417</v>
+      </c>
+      <c r="L10">
+        <v>0.9955693574050889</v>
+      </c>
+      <c r="M10">
+        <v>0.9517527100948638</v>
+      </c>
+      <c r="N10">
+        <v>1.001401700655657</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.962880866394529</v>
+      </c>
+      <c r="D11">
+        <v>0.9870931505344495</v>
+      </c>
+      <c r="E11">
+        <v>0.9736596824133503</v>
+      </c>
+      <c r="F11">
+        <v>0.925886609828899</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023878501470619</v>
+      </c>
+      <c r="J11">
+        <v>0.9938837418776965</v>
+      </c>
+      <c r="K11">
+        <v>1.002262646086747</v>
+      </c>
+      <c r="L11">
+        <v>0.9890960418273548</v>
+      </c>
+      <c r="M11">
+        <v>0.9423559877035503</v>
+      </c>
+      <c r="N11">
+        <v>0.9952951707912213</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9599479939158323</v>
+      </c>
+      <c r="D12">
+        <v>0.9847790678593841</v>
+      </c>
+      <c r="E12">
+        <v>0.9709130096330149</v>
+      </c>
+      <c r="F12">
+        <v>0.9219600824488017</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.022648492033684</v>
+      </c>
+      <c r="J12">
+        <v>0.9915497699267514</v>
+      </c>
+      <c r="K12">
+        <v>1.000203804445962</v>
+      </c>
+      <c r="L12">
+        <v>0.9866195239865519</v>
+      </c>
+      <c r="M12">
+        <v>0.9387524163549243</v>
+      </c>
+      <c r="N12">
+        <v>0.9929578843323956</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9605811380935838</v>
+      </c>
+      <c r="D13">
+        <v>0.9852785445088372</v>
+      </c>
+      <c r="E13">
+        <v>0.971505873183063</v>
+      </c>
+      <c r="F13">
+        <v>0.922808233403912</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.022914131745156</v>
+      </c>
+      <c r="J13">
+        <v>0.9920536960359656</v>
+      </c>
+      <c r="K13">
+        <v>1.00064832289624</v>
+      </c>
+      <c r="L13">
+        <v>0.9871541741569423</v>
+      </c>
+      <c r="M13">
+        <v>0.9395308071991322</v>
+      </c>
+      <c r="N13">
+        <v>0.9934625260744862</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9626402332340459</v>
+      </c>
+      <c r="D14">
+        <v>0.9869032500070084</v>
+      </c>
+      <c r="E14">
+        <v>0.9734342889446886</v>
+      </c>
+      <c r="F14">
+        <v>0.9255646698806452</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023777631249035</v>
+      </c>
+      <c r="J14">
+        <v>0.9936922788669551</v>
+      </c>
+      <c r="K14">
+        <v>1.002093751049018</v>
+      </c>
+      <c r="L14">
+        <v>0.9888928616816544</v>
+      </c>
+      <c r="M14">
+        <v>0.9420605277224888</v>
+      </c>
+      <c r="N14">
+        <v>0.9951034358810438</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9638973223783434</v>
+      </c>
+      <c r="D15">
+        <v>0.9878953796852554</v>
+      </c>
+      <c r="E15">
+        <v>0.9746118383715746</v>
+      </c>
+      <c r="F15">
+        <v>0.9272460876407604</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.024304488738631</v>
+      </c>
+      <c r="J15">
+        <v>0.9946924340579286</v>
+      </c>
+      <c r="K15">
+        <v>1.00297601971718</v>
+      </c>
+      <c r="L15">
+        <v>0.9899542713422261</v>
+      </c>
+      <c r="M15">
+        <v>0.943603644215445</v>
+      </c>
+      <c r="N15">
+        <v>0.9961050114071077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9710463927408627</v>
+      </c>
+      <c r="D16">
+        <v>0.9935409320431066</v>
+      </c>
+      <c r="E16">
+        <v>0.9813120362432393</v>
+      </c>
+      <c r="F16">
+        <v>0.9367890481244859</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.027295902201473</v>
+      </c>
+      <c r="J16">
+        <v>1.000377157707728</v>
+      </c>
+      <c r="K16">
+        <v>1.007990770636397</v>
+      </c>
+      <c r="L16">
+        <v>0.995989411899179</v>
+      </c>
+      <c r="M16">
+        <v>0.9523613949260844</v>
+      </c>
+      <c r="N16">
+        <v>1.001797808016537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9753922825019476</v>
+      </c>
+      <c r="D17">
+        <v>0.9969754626511728</v>
+      </c>
+      <c r="E17">
+        <v>0.9853879430340169</v>
+      </c>
+      <c r="F17">
+        <v>0.9425750931542975</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.029110035651644</v>
+      </c>
+      <c r="J17">
+        <v>1.003830084932573</v>
+      </c>
+      <c r="K17">
+        <v>1.011036731604974</v>
+      </c>
+      <c r="L17">
+        <v>0.999657118831196</v>
+      </c>
+      <c r="M17">
+        <v>0.9576709228111503</v>
+      </c>
+      <c r="N17">
+        <v>1.005255638794098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9778805900500688</v>
+      </c>
+      <c r="D18">
+        <v>0.9989428016763472</v>
+      </c>
+      <c r="E18">
+        <v>0.9877226500438899</v>
+      </c>
+      <c r="F18">
+        <v>0.9458831929698683</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.030147144762817</v>
+      </c>
+      <c r="J18">
+        <v>1.005806097279432</v>
+      </c>
+      <c r="K18">
+        <v>1.01277980872688</v>
+      </c>
+      <c r="L18">
+        <v>1.001756726067242</v>
+      </c>
+      <c r="M18">
+        <v>0.9607063556303752</v>
+      </c>
+      <c r="N18">
+        <v>1.007234457305141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9787214310469595</v>
+      </c>
+      <c r="D19">
+        <v>0.9996077331532065</v>
+      </c>
+      <c r="E19">
+        <v>0.9885117486387405</v>
+      </c>
+      <c r="F19">
+        <v>0.9470002972342915</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.030497325800492</v>
+      </c>
+      <c r="J19">
+        <v>1.006473651732169</v>
+      </c>
+      <c r="K19">
+        <v>1.01336866126449</v>
+      </c>
+      <c r="L19">
+        <v>1.002466149139014</v>
+      </c>
+      <c r="M19">
+        <v>0.9617313396608873</v>
+      </c>
+      <c r="N19">
+        <v>1.00790295976177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9749308982665494</v>
+      </c>
+      <c r="D20">
+        <v>0.9966107433552709</v>
+      </c>
+      <c r="E20">
+        <v>0.9849551181921363</v>
+      </c>
+      <c r="F20">
+        <v>0.9419613263554909</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.028917602867975</v>
+      </c>
+      <c r="J20">
+        <v>1.003463608163274</v>
+      </c>
+      <c r="K20">
+        <v>1.010713451711393</v>
+      </c>
+      <c r="L20">
+        <v>0.9992677750067409</v>
+      </c>
+      <c r="M20">
+        <v>0.9571077254719533</v>
+      </c>
+      <c r="N20">
+        <v>1.004888641585751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9620363180962017</v>
+      </c>
+      <c r="D21">
+        <v>0.986426687214779</v>
+      </c>
+      <c r="E21">
+        <v>0.9728686501986409</v>
+      </c>
+      <c r="F21">
+        <v>0.9247565285327188</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.023524439555948</v>
+      </c>
+      <c r="J21">
+        <v>0.9932117400642023</v>
+      </c>
+      <c r="K21">
+        <v>1.001669855229713</v>
+      </c>
+      <c r="L21">
+        <v>0.9883829336204751</v>
+      </c>
+      <c r="M21">
+        <v>0.9413188563093381</v>
+      </c>
+      <c r="N21">
+        <v>0.9946222146580724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9534317042288883</v>
+      </c>
+      <c r="D22">
+        <v>0.9796412508595372</v>
+      </c>
+      <c r="E22">
+        <v>0.9648139788970727</v>
+      </c>
+      <c r="F22">
+        <v>0.9132143322805611</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.01991131303608</v>
+      </c>
+      <c r="J22">
+        <v>0.986361189982763</v>
+      </c>
+      <c r="K22">
+        <v>0.9956271024738993</v>
+      </c>
+      <c r="L22">
+        <v>0.9811162583264859</v>
+      </c>
+      <c r="M22">
+        <v>0.9307261359080703</v>
+      </c>
+      <c r="N22">
+        <v>0.9877619360097483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9580446097299048</v>
+      </c>
+      <c r="D23">
+        <v>0.983277803758384</v>
+      </c>
+      <c r="E23">
+        <v>0.9691309976983568</v>
+      </c>
+      <c r="F23">
+        <v>0.9194086485701087</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.021849570552246</v>
+      </c>
+      <c r="J23">
+        <v>0.9900346139856876</v>
+      </c>
+      <c r="K23">
+        <v>0.9988672874586686</v>
+      </c>
+      <c r="L23">
+        <v>0.9850121635132524</v>
+      </c>
+      <c r="M23">
+        <v>0.9364108439544898</v>
+      </c>
+      <c r="N23">
+        <v>0.9914405766961046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9751395210812069</v>
+      </c>
+      <c r="D24">
+        <v>0.9967756548492075</v>
+      </c>
+      <c r="E24">
+        <v>0.9851508243394105</v>
+      </c>
+      <c r="F24">
+        <v>0.9422388663366299</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.029004619657808</v>
+      </c>
+      <c r="J24">
+        <v>1.003629320100671</v>
+      </c>
+      <c r="K24">
+        <v>1.010859631197908</v>
+      </c>
+      <c r="L24">
+        <v>0.999443824750727</v>
+      </c>
+      <c r="M24">
+        <v>0.9573623991006901</v>
+      </c>
+      <c r="N24">
+        <v>1.005054588853106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9931711637336011</v>
+      </c>
+      <c r="D25">
+        <v>1.011044241415347</v>
+      </c>
+      <c r="E25">
+        <v>1.00208509488024</v>
+      </c>
+      <c r="F25">
+        <v>0.9661431501995463</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.036491027298775</v>
+      </c>
+      <c r="J25">
+        <v>1.01793055142017</v>
+      </c>
+      <c r="K25">
+        <v>1.023473495306151</v>
+      </c>
+      <c r="L25">
+        <v>1.014651128440394</v>
+      </c>
+      <c r="M25">
+        <v>0.9792908183722682</v>
+      </c>
+      <c r="N25">
+        <v>1.019376129561453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00639982309643</v>
+        <v>1.054076927776586</v>
       </c>
       <c r="D2">
-        <v>1.021528018819043</v>
+        <v>1.053932172296282</v>
       </c>
       <c r="E2">
-        <v>1.014532772275551</v>
+        <v>1.057759792043994</v>
       </c>
       <c r="F2">
-        <v>0.9835922941986697</v>
+        <v>1.053056376451099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041931265014971</v>
+        <v>1.045355922328282</v>
       </c>
       <c r="J2">
-        <v>1.02839078709278</v>
+        <v>1.059090918719529</v>
       </c>
       <c r="K2">
-        <v>1.032695365087146</v>
+        <v>1.056676777510025</v>
       </c>
       <c r="L2">
-        <v>1.025793288271238</v>
+        <v>1.060493881222319</v>
       </c>
       <c r="M2">
-        <v>0.9952850482077481</v>
+        <v>1.055803399478348</v>
       </c>
       <c r="N2">
-        <v>1.029851219968524</v>
+        <v>1.060594949303537</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015450048927855</v>
+        <v>1.055721216404756</v>
       </c>
       <c r="D3">
-        <v>1.028706001015327</v>
+        <v>1.055234529281035</v>
       </c>
       <c r="E3">
-        <v>1.023060611513994</v>
+        <v>1.059355309705255</v>
       </c>
       <c r="F3">
-        <v>0.9954979888225574</v>
+        <v>1.055324980377031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045621537443362</v>
+        <v>1.045922483563606</v>
       </c>
       <c r="J3">
-        <v>1.035528211385261</v>
+        <v>1.060382979144667</v>
       </c>
       <c r="K3">
-        <v>1.038984299684353</v>
+        <v>1.057791025940451</v>
       </c>
       <c r="L3">
-        <v>1.033406690917001</v>
+        <v>1.061901315339253</v>
       </c>
       <c r="M3">
-        <v>1.006188799676373</v>
+        <v>1.057881245810284</v>
       </c>
       <c r="N3">
-        <v>1.036998780222174</v>
+        <v>1.06188884460268</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021079693573298</v>
+        <v>1.056781654681217</v>
       </c>
       <c r="D4">
-        <v>1.033172663473453</v>
+        <v>1.056074042083553</v>
       </c>
       <c r="E4">
-        <v>1.028370267822589</v>
+        <v>1.060384555887234</v>
       </c>
       <c r="F4">
-        <v>1.002893915743114</v>
+        <v>1.056788935499831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047901985597907</v>
+        <v>1.046285905230153</v>
       </c>
       <c r="J4">
-        <v>1.039959128393373</v>
+        <v>1.061215166299262</v>
       </c>
       <c r="K4">
-        <v>1.042886553345375</v>
+        <v>1.058508279537084</v>
       </c>
       <c r="L4">
-        <v>1.038137934213886</v>
+        <v>1.062808379309473</v>
       </c>
       <c r="M4">
-        <v>1.012957538783933</v>
+        <v>1.059221439483198</v>
       </c>
       <c r="N4">
-        <v>1.041435989640671</v>
+        <v>1.062722213558488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023396102192521</v>
+        <v>1.057226634739712</v>
       </c>
       <c r="D5">
-        <v>1.035010808475978</v>
+        <v>1.056426219310893</v>
       </c>
       <c r="E5">
-        <v>1.030556130367192</v>
+        <v>1.060816509248562</v>
       </c>
       <c r="F5">
-        <v>1.005935311512078</v>
+        <v>1.057403455257886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048836631430489</v>
+        <v>1.046437932491244</v>
       </c>
       <c r="J5">
-        <v>1.041780142198202</v>
+        <v>1.061564106348984</v>
       </c>
       <c r="K5">
-        <v>1.044489796211703</v>
+        <v>1.0588089289867</v>
       </c>
       <c r="L5">
-        <v>1.040083526657581</v>
+        <v>1.063188851466482</v>
       </c>
       <c r="M5">
-        <v>1.015739810059122</v>
+        <v>1.059783849243327</v>
       </c>
       <c r="N5">
-        <v>1.043259589493975</v>
+        <v>1.063071649143105</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023782193689913</v>
+        <v>1.057301300746757</v>
       </c>
       <c r="D6">
-        <v>1.035317196561872</v>
+        <v>1.056485307549557</v>
       </c>
       <c r="E6">
-        <v>1.030920526706001</v>
+        <v>1.06088899305241</v>
       </c>
       <c r="F6">
-        <v>1.006442153136871</v>
+        <v>1.057506582239668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048992196684723</v>
+        <v>1.046463414436503</v>
       </c>
       <c r="J6">
-        <v>1.042083535046757</v>
+        <v>1.061622641853486</v>
       </c>
       <c r="K6">
-        <v>1.044756876366888</v>
+        <v>1.058859357842662</v>
       </c>
       <c r="L6">
-        <v>1.040407742595194</v>
+        <v>1.063252684530268</v>
       </c>
       <c r="M6">
-        <v>1.016203396362291</v>
+        <v>1.059878221937075</v>
       </c>
       <c r="N6">
-        <v>1.043563413195176</v>
+        <v>1.063130267774738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021110838316138</v>
+        <v>1.056787603758901</v>
       </c>
       <c r="D7">
-        <v>1.033197376946046</v>
+        <v>1.056078750839074</v>
       </c>
       <c r="E7">
-        <v>1.028399652993573</v>
+        <v>1.060390330563382</v>
       </c>
       <c r="F7">
-        <v>1.002934814438164</v>
+        <v>1.056797150349264</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047914566848968</v>
+        <v>1.046287939584519</v>
       </c>
       <c r="J7">
-        <v>1.039983621016255</v>
+        <v>1.061219832416538</v>
       </c>
       <c r="K7">
-        <v>1.042908118991217</v>
+        <v>1.058512300287646</v>
       </c>
       <c r="L7">
-        <v>1.038164097864727</v>
+        <v>1.062813466547628</v>
       </c>
       <c r="M7">
-        <v>1.012994957814871</v>
+        <v>1.059228958356051</v>
       </c>
       <c r="N7">
-        <v>1.041460517045886</v>
+        <v>1.062726886302185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009507790584454</v>
+        <v>1.054633362687224</v>
       </c>
       <c r="D8">
-        <v>1.023992601798203</v>
+        <v>1.054372979596288</v>
       </c>
       <c r="E8">
-        <v>1.017460245233462</v>
+        <v>1.058299668099346</v>
       </c>
       <c r="F8">
-        <v>0.9876833843802324</v>
+        <v>1.053823902655892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043201710958326</v>
+        <v>1.045548056947521</v>
       </c>
       <c r="J8">
-        <v>1.030843741545666</v>
+        <v>1.059528384312246</v>
       </c>
       <c r="K8">
-        <v>1.034857096901419</v>
+        <v>1.05705412415025</v>
       </c>
       <c r="L8">
-        <v>1.028408788426332</v>
+        <v>1.060970292265811</v>
       </c>
       <c r="M8">
-        <v>0.9990328178478671</v>
+        <v>1.056506525055927</v>
       </c>
       <c r="N8">
-        <v>1.032307657898091</v>
+        <v>1.061033036147574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9871221524655343</v>
+        <v>1.050809582285399</v>
       </c>
       <c r="D9">
-        <v>1.006254501365298</v>
+        <v>1.051342150049948</v>
       </c>
       <c r="E9">
-        <v>0.9964000123272424</v>
+        <v>1.054590776442883</v>
       </c>
       <c r="F9">
-        <v>0.9581413586370312</v>
+        <v>1.048552950293224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033987756002055</v>
+        <v>1.04421963406032</v>
       </c>
       <c r="J9">
-        <v>1.013138002551203</v>
+        <v>1.056517658361932</v>
       </c>
       <c r="K9">
-        <v>1.01924691218893</v>
+        <v>1.054455478806698</v>
       </c>
       <c r="L9">
-        <v>1.009551768102057</v>
+        <v>1.057693877952693</v>
       </c>
       <c r="M9">
-        <v>0.9719521481319624</v>
+        <v>1.051675115240479</v>
       </c>
       <c r="N9">
-        <v>1.014576774723379</v>
+        <v>1.058018034621075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9705487298501936</v>
+        <v>1.048240730545649</v>
       </c>
       <c r="D10">
-        <v>0.9931477553938363</v>
+        <v>1.049303998569707</v>
       </c>
       <c r="E10">
-        <v>0.9808454292475998</v>
+        <v>1.052100509819019</v>
       </c>
       <c r="F10">
-        <v>0.936125763708712</v>
+        <v>1.0450159716586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027087942060957</v>
+        <v>1.043317033289626</v>
       </c>
       <c r="J10">
-        <v>0.9999816120670282</v>
+        <v>1.054489376365819</v>
       </c>
       <c r="K10">
-        <v>1.007641841279417</v>
+        <v>1.052702727374238</v>
       </c>
       <c r="L10">
-        <v>0.9955693574050889</v>
+        <v>1.055489552534981</v>
       </c>
       <c r="M10">
-        <v>0.9517527100948638</v>
+        <v>1.048429663514031</v>
       </c>
       <c r="N10">
-        <v>1.001401700655657</v>
+        <v>1.05598687223188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.962880866394529</v>
+        <v>1.047123496545224</v>
       </c>
       <c r="D11">
-        <v>0.9870931505344495</v>
+        <v>1.048417111306795</v>
       </c>
       <c r="E11">
-        <v>0.9736596824133503</v>
+        <v>1.051017792934777</v>
       </c>
       <c r="F11">
-        <v>0.925886609828899</v>
+        <v>1.043478584487077</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023878501470619</v>
+        <v>1.042922076483735</v>
       </c>
       <c r="J11">
-        <v>0.9938837418776965</v>
+        <v>1.053605906909215</v>
       </c>
       <c r="K11">
-        <v>1.002262646086747</v>
+        <v>1.051938784817433</v>
       </c>
       <c r="L11">
-        <v>0.9890960418273548</v>
+        <v>1.054530101528351</v>
       </c>
       <c r="M11">
-        <v>0.9423559877035503</v>
+        <v>1.047018183311854</v>
       </c>
       <c r="N11">
-        <v>0.9952951707912213</v>
+        <v>1.055102148147313</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9599479939158323</v>
+        <v>1.046707749446566</v>
       </c>
       <c r="D12">
-        <v>0.9847790678593841</v>
+        <v>1.048087012838483</v>
       </c>
       <c r="E12">
-        <v>0.9709130096330149</v>
+        <v>1.050614941936701</v>
       </c>
       <c r="F12">
-        <v>0.9219600824488017</v>
+        <v>1.042906618462265</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022648492033684</v>
+        <v>1.042774744223619</v>
       </c>
       <c r="J12">
-        <v>0.9915497699267514</v>
+        <v>1.053276947861128</v>
       </c>
       <c r="K12">
-        <v>1.000203804445962</v>
+        <v>1.051654258814913</v>
       </c>
       <c r="L12">
-        <v>0.9866195239865519</v>
+        <v>1.05417295575371</v>
       </c>
       <c r="M12">
-        <v>0.9387524163549243</v>
+        <v>1.046492938218847</v>
       </c>
       <c r="N12">
-        <v>0.9929578843323956</v>
+        <v>1.054772721939646</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9605811380935838</v>
+        <v>1.046796963171662</v>
       </c>
       <c r="D13">
-        <v>0.9852785445088372</v>
+        <v>1.048157850597447</v>
       </c>
       <c r="E13">
-        <v>0.971505873183063</v>
+        <v>1.050701385992051</v>
       </c>
       <c r="F13">
-        <v>0.922808233403912</v>
+        <v>1.043029348915945</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022914131745156</v>
+        <v>1.042806376029075</v>
       </c>
       <c r="J13">
-        <v>0.9920536960359656</v>
+        <v>1.053347547123028</v>
       </c>
       <c r="K13">
-        <v>1.00064832289624</v>
+        <v>1.051715325396587</v>
       </c>
       <c r="L13">
-        <v>0.9871541741569423</v>
+        <v>1.054249599539041</v>
       </c>
       <c r="M13">
-        <v>0.9395308071991322</v>
+        <v>1.046605648939257</v>
       </c>
       <c r="N13">
-        <v>0.9934625260744862</v>
+        <v>1.054843421460595</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9626402332340459</v>
+        <v>1.047089146311427</v>
       </c>
       <c r="D14">
-        <v>0.9869032500070084</v>
+        <v>1.048389838999656</v>
       </c>
       <c r="E14">
-        <v>0.9734342889446886</v>
+        <v>1.050984507160422</v>
       </c>
       <c r="F14">
-        <v>0.9255646698806452</v>
+        <v>1.043431324392303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023777631249035</v>
+        <v>1.042909910805214</v>
       </c>
       <c r="J14">
-        <v>0.9936922788669551</v>
+        <v>1.053578731449988</v>
       </c>
       <c r="K14">
-        <v>1.002093751049018</v>
+        <v>1.051915281471212</v>
       </c>
       <c r="L14">
-        <v>0.9888928616816544</v>
+        <v>1.054500595411719</v>
       </c>
       <c r="M14">
-        <v>0.9420605277224888</v>
+        <v>1.046974786118504</v>
       </c>
       <c r="N14">
-        <v>0.9951034358810438</v>
+        <v>1.055074934095816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9638973223783434</v>
+        <v>1.047269069126077</v>
       </c>
       <c r="D15">
-        <v>0.9878953796852554</v>
+        <v>1.048532685606572</v>
       </c>
       <c r="E15">
-        <v>0.9746118383715746</v>
+        <v>1.051158856563559</v>
       </c>
       <c r="F15">
-        <v>0.9272460876407604</v>
+        <v>1.043678872916177</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024304488738631</v>
+        <v>1.042973618577285</v>
       </c>
       <c r="J15">
-        <v>0.9946924340579286</v>
+        <v>1.053721065353026</v>
       </c>
       <c r="K15">
-        <v>1.00297601971718</v>
+        <v>1.052038379382722</v>
       </c>
       <c r="L15">
-        <v>0.9899542713422261</v>
+        <v>1.054655140634744</v>
       </c>
       <c r="M15">
-        <v>0.943603644215445</v>
+        <v>1.047202095793558</v>
       </c>
       <c r="N15">
-        <v>0.9961050114071077</v>
+        <v>1.055217470129323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9710463927408627</v>
+        <v>1.04831477267264</v>
       </c>
       <c r="D16">
-        <v>0.9935409320431066</v>
+        <v>1.049362765352801</v>
       </c>
       <c r="E16">
-        <v>0.9813120362432393</v>
+        <v>1.0521722715859</v>
       </c>
       <c r="F16">
-        <v>0.9367890481244859</v>
+        <v>1.045117876898703</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027295902201473</v>
+        <v>1.043343157686608</v>
       </c>
       <c r="J16">
-        <v>1.000377157707728</v>
+        <v>1.05454789815985</v>
       </c>
       <c r="K16">
-        <v>1.007990770636397</v>
+        <v>1.052753321402098</v>
       </c>
       <c r="L16">
-        <v>0.995989411899179</v>
+        <v>1.055553122096422</v>
       </c>
       <c r="M16">
-        <v>0.9523613949260844</v>
+        <v>1.048523206062693</v>
       </c>
       <c r="N16">
-        <v>1.001797808016537</v>
+        <v>1.056045477133572</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9753922825019476</v>
+        <v>1.048969387952311</v>
       </c>
       <c r="D17">
-        <v>0.9969754626511728</v>
+        <v>1.04988227625955</v>
       </c>
       <c r="E17">
-        <v>0.9853879430340169</v>
+        <v>1.052806765097235</v>
       </c>
       <c r="F17">
-        <v>0.9425750931542975</v>
+        <v>1.04601893632006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029110035651644</v>
+        <v>1.043573849872655</v>
       </c>
       <c r="J17">
-        <v>1.003830084932573</v>
+        <v>1.05506514215935</v>
       </c>
       <c r="K17">
-        <v>1.011036731604974</v>
+        <v>1.053200439894283</v>
       </c>
       <c r="L17">
-        <v>0.999657118831196</v>
+        <v>1.056115061165875</v>
       </c>
       <c r="M17">
-        <v>0.9576709228111503</v>
+        <v>1.049350228298089</v>
       </c>
       <c r="N17">
-        <v>1.005255638794098</v>
+        <v>1.05656345567888</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9778805900500688</v>
+        <v>1.049350742134574</v>
       </c>
       <c r="D18">
-        <v>0.9989428016763472</v>
+        <v>1.050184879078251</v>
       </c>
       <c r="E18">
-        <v>0.9877226500438899</v>
+        <v>1.053176429701733</v>
       </c>
       <c r="F18">
-        <v>0.9458831929698683</v>
+        <v>1.046543946630136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030147144762817</v>
+        <v>1.043708011294345</v>
       </c>
       <c r="J18">
-        <v>1.005806097279432</v>
+        <v>1.055366340267148</v>
       </c>
       <c r="K18">
-        <v>1.01277980872688</v>
+        <v>1.053460756081725</v>
       </c>
       <c r="L18">
-        <v>1.001756726067242</v>
+        <v>1.056442352982767</v>
       </c>
       <c r="M18">
-        <v>0.9607063556303752</v>
+        <v>1.049832022337206</v>
       </c>
       <c r="N18">
-        <v>1.007234457305141</v>
+        <v>1.056865081522539</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9787214310469595</v>
+        <v>1.04948069462049</v>
       </c>
       <c r="D19">
-        <v>0.9996077331532065</v>
+        <v>1.050287988179176</v>
       </c>
       <c r="E19">
-        <v>0.9885117486387405</v>
+        <v>1.053302404292007</v>
       </c>
       <c r="F19">
-        <v>0.9470002972342915</v>
+        <v>1.046722867169568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030497325800492</v>
+        <v>1.04375368970259</v>
       </c>
       <c r="J19">
-        <v>1.006473651732169</v>
+        <v>1.05546895645726</v>
       </c>
       <c r="K19">
-        <v>1.01336866126449</v>
+        <v>1.05354943610266</v>
       </c>
       <c r="L19">
-        <v>1.002466149139014</v>
+        <v>1.056553870520059</v>
       </c>
       <c r="M19">
-        <v>0.9617313396608873</v>
+        <v>1.049996201805246</v>
       </c>
       <c r="N19">
-        <v>1.00790295976177</v>
+        <v>1.056967843439411</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9749308982665494</v>
+        <v>1.04889920287514</v>
       </c>
       <c r="D20">
-        <v>0.9966107433552709</v>
+        <v>1.049826581112977</v>
       </c>
       <c r="E20">
-        <v>0.9849551181921363</v>
+        <v>1.052738734012533</v>
       </c>
       <c r="F20">
-        <v>0.9419613263554909</v>
+        <v>1.045922319579929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028917602867975</v>
+        <v>1.043549139949976</v>
       </c>
       <c r="J20">
-        <v>1.003463608163274</v>
+        <v>1.055009698771003</v>
       </c>
       <c r="K20">
-        <v>1.010713451711393</v>
+        <v>1.053152518109794</v>
       </c>
       <c r="L20">
-        <v>0.9992677750067409</v>
+        <v>1.056054819960454</v>
       </c>
       <c r="M20">
-        <v>0.9571077254719533</v>
+        <v>1.049261558301498</v>
       </c>
       <c r="N20">
-        <v>1.004888641585751</v>
+        <v>1.056507933554562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9620363180962017</v>
+        <v>1.047003126707017</v>
       </c>
       <c r="D21">
-        <v>0.986426687214779</v>
+        <v>1.048321542786927</v>
       </c>
       <c r="E21">
-        <v>0.9728686501986409</v>
+        <v>1.050901154001578</v>
       </c>
       <c r="F21">
-        <v>0.9247565285327188</v>
+        <v>1.043312978073938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023524439555948</v>
+        <v>1.042879439787239</v>
       </c>
       <c r="J21">
-        <v>0.9932117400642023</v>
+        <v>1.053510675621373</v>
       </c>
       <c r="K21">
-        <v>1.001669855229713</v>
+        <v>1.051856420587592</v>
       </c>
       <c r="L21">
-        <v>0.9883829336204751</v>
+        <v>1.054426704583876</v>
       </c>
       <c r="M21">
-        <v>0.9413188563093381</v>
+        <v>1.046866111124398</v>
       </c>
       <c r="N21">
-        <v>0.9946222146580724</v>
+        <v>1.055006781620119</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9534317042288883</v>
+        <v>1.045806600623805</v>
       </c>
       <c r="D22">
-        <v>0.9796412508595372</v>
+        <v>1.047371387018978</v>
       </c>
       <c r="E22">
-        <v>0.9648139788970727</v>
+        <v>1.049741840868614</v>
       </c>
       <c r="F22">
-        <v>0.9132143322805611</v>
+        <v>1.041667088522514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01991131303608</v>
+        <v>1.042454736881605</v>
       </c>
       <c r="J22">
-        <v>0.986361189982763</v>
+        <v>1.0525635483087</v>
       </c>
       <c r="K22">
-        <v>0.9956271024738993</v>
+        <v>1.051037086850984</v>
       </c>
       <c r="L22">
-        <v>0.9811162583264859</v>
+        <v>1.053398620918956</v>
       </c>
       <c r="M22">
-        <v>0.9307261359080703</v>
+        <v>1.04535443751114</v>
       </c>
       <c r="N22">
-        <v>0.9877619360097483</v>
+        <v>1.054058309278025</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9580446097299048</v>
+        <v>1.046441324339207</v>
       </c>
       <c r="D23">
-        <v>0.983277803758384</v>
+        <v>1.047875455220655</v>
       </c>
       <c r="E23">
-        <v>0.9691309976983568</v>
+        <v>1.050356795674966</v>
       </c>
       <c r="F23">
-        <v>0.9194086485701087</v>
+        <v>1.042540118487592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021849570552246</v>
+        <v>1.04268022727064</v>
       </c>
       <c r="J23">
-        <v>0.9900346139856876</v>
+        <v>1.053066083013248</v>
       </c>
       <c r="K23">
-        <v>0.9988672874586686</v>
+        <v>1.051471855434215</v>
       </c>
       <c r="L23">
-        <v>0.9850121635132524</v>
+        <v>1.053944052576882</v>
       </c>
       <c r="M23">
-        <v>0.9364108439544898</v>
+        <v>1.046156341629046</v>
       </c>
       <c r="N23">
-        <v>0.9914405766961046</v>
+        <v>1.054561557639495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9751395210812069</v>
+        <v>1.048930917947962</v>
       </c>
       <c r="D24">
-        <v>0.9967756548492075</v>
+        <v>1.049851748647103</v>
       </c>
       <c r="E24">
-        <v>0.9851508243394105</v>
+        <v>1.052769475643373</v>
       </c>
       <c r="F24">
-        <v>0.9422388663366299</v>
+        <v>1.045965978262756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029004619657808</v>
+        <v>1.043560306528288</v>
       </c>
       <c r="J24">
-        <v>1.003629320100671</v>
+        <v>1.055034752801133</v>
       </c>
       <c r="K24">
-        <v>1.010859631197908</v>
+        <v>1.053174173385772</v>
       </c>
       <c r="L24">
-        <v>0.999443824750727</v>
+        <v>1.056082041843958</v>
       </c>
       <c r="M24">
-        <v>0.9573623991006901</v>
+        <v>1.04930162629082</v>
       </c>
       <c r="N24">
-        <v>1.005054588853106</v>
+        <v>1.056533023164288</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9931711637336011</v>
+        <v>1.051801511731259</v>
       </c>
       <c r="D25">
-        <v>1.011044241415347</v>
+        <v>1.052128737565832</v>
       </c>
       <c r="E25">
-        <v>1.00208509488024</v>
+        <v>1.055552658580613</v>
       </c>
       <c r="F25">
-        <v>0.9661431501995463</v>
+        <v>1.049919548310517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036491027298775</v>
+        <v>1.044566026727298</v>
       </c>
       <c r="J25">
-        <v>1.01793055142017</v>
+        <v>1.057299665394662</v>
       </c>
       <c r="K25">
-        <v>1.023473495306151</v>
+        <v>1.055130819258451</v>
       </c>
       <c r="L25">
-        <v>1.014651128440394</v>
+        <v>1.058544377923501</v>
       </c>
       <c r="M25">
-        <v>0.9792908183722682</v>
+        <v>1.052928355143053</v>
       </c>
       <c r="N25">
-        <v>1.019376129561453</v>
+        <v>1.058801152193489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054076927776586</v>
+        <v>1.006399823096432</v>
       </c>
       <c r="D2">
-        <v>1.053932172296282</v>
+        <v>1.021528018819045</v>
       </c>
       <c r="E2">
-        <v>1.057759792043994</v>
+        <v>1.014532772275553</v>
       </c>
       <c r="F2">
-        <v>1.053056376451099</v>
+        <v>0.9835922941986713</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045355922328282</v>
+        <v>1.041931265014972</v>
       </c>
       <c r="J2">
-        <v>1.059090918719529</v>
+        <v>1.028390787092782</v>
       </c>
       <c r="K2">
-        <v>1.056676777510025</v>
+        <v>1.032695365087148</v>
       </c>
       <c r="L2">
-        <v>1.060493881222319</v>
+        <v>1.02579328827124</v>
       </c>
       <c r="M2">
-        <v>1.055803399478348</v>
+        <v>0.9952850482077498</v>
       </c>
       <c r="N2">
-        <v>1.060594949303537</v>
+        <v>1.029851219968525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055721216404756</v>
+        <v>1.015450048927854</v>
       </c>
       <c r="D3">
-        <v>1.055234529281035</v>
+        <v>1.028706001015325</v>
       </c>
       <c r="E3">
-        <v>1.059355309705255</v>
+        <v>1.023060611513992</v>
       </c>
       <c r="F3">
-        <v>1.055324980377031</v>
+        <v>0.9954979888225551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045922483563606</v>
+        <v>1.045621537443361</v>
       </c>
       <c r="J3">
-        <v>1.060382979144667</v>
+        <v>1.035528211385259</v>
       </c>
       <c r="K3">
-        <v>1.057791025940451</v>
+        <v>1.038984299684351</v>
       </c>
       <c r="L3">
-        <v>1.061901315339253</v>
+        <v>1.033406690916999</v>
       </c>
       <c r="M3">
-        <v>1.057881245810284</v>
+        <v>1.006188799676371</v>
       </c>
       <c r="N3">
-        <v>1.06188884460268</v>
+        <v>1.036998780222172</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056781654681217</v>
+        <v>1.021079693573297</v>
       </c>
       <c r="D4">
-        <v>1.056074042083553</v>
+        <v>1.033172663473452</v>
       </c>
       <c r="E4">
-        <v>1.060384555887234</v>
+        <v>1.028370267822588</v>
       </c>
       <c r="F4">
-        <v>1.056788935499831</v>
+        <v>1.002893915743113</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046285905230153</v>
+        <v>1.047901985597907</v>
       </c>
       <c r="J4">
-        <v>1.061215166299262</v>
+        <v>1.039959128393372</v>
       </c>
       <c r="K4">
-        <v>1.058508279537084</v>
+        <v>1.042886553345375</v>
       </c>
       <c r="L4">
-        <v>1.062808379309473</v>
+        <v>1.038137934213885</v>
       </c>
       <c r="M4">
-        <v>1.059221439483198</v>
+        <v>1.012957538783932</v>
       </c>
       <c r="N4">
-        <v>1.062722213558488</v>
+        <v>1.041435989640671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057226634739712</v>
+        <v>1.02339610219252</v>
       </c>
       <c r="D5">
-        <v>1.056426219310893</v>
+        <v>1.035010808475978</v>
       </c>
       <c r="E5">
-        <v>1.060816509248562</v>
+        <v>1.030556130367192</v>
       </c>
       <c r="F5">
-        <v>1.057403455257886</v>
+        <v>1.005935311512077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046437932491244</v>
+        <v>1.048836631430489</v>
       </c>
       <c r="J5">
-        <v>1.061564106348984</v>
+        <v>1.041780142198201</v>
       </c>
       <c r="K5">
-        <v>1.0588089289867</v>
+        <v>1.044489796211703</v>
       </c>
       <c r="L5">
-        <v>1.063188851466482</v>
+        <v>1.040083526657581</v>
       </c>
       <c r="M5">
-        <v>1.059783849243327</v>
+        <v>1.015739810059122</v>
       </c>
       <c r="N5">
-        <v>1.063071649143105</v>
+        <v>1.043259589493976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057301300746757</v>
+        <v>1.023782193689915</v>
       </c>
       <c r="D6">
-        <v>1.056485307549557</v>
+        <v>1.035317196561873</v>
       </c>
       <c r="E6">
-        <v>1.06088899305241</v>
+        <v>1.030920526706003</v>
       </c>
       <c r="F6">
-        <v>1.057506582239668</v>
+        <v>1.006442153136872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046463414436503</v>
+        <v>1.048992196684724</v>
       </c>
       <c r="J6">
-        <v>1.061622641853486</v>
+        <v>1.042083535046759</v>
       </c>
       <c r="K6">
-        <v>1.058859357842662</v>
+        <v>1.044756876366889</v>
       </c>
       <c r="L6">
-        <v>1.063252684530268</v>
+        <v>1.040407742595196</v>
       </c>
       <c r="M6">
-        <v>1.059878221937075</v>
+        <v>1.016203396362293</v>
       </c>
       <c r="N6">
-        <v>1.063130267774738</v>
+        <v>1.043563413195177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056787603758901</v>
+        <v>1.021110838316137</v>
       </c>
       <c r="D7">
-        <v>1.056078750839074</v>
+        <v>1.033197376946045</v>
       </c>
       <c r="E7">
-        <v>1.060390330563382</v>
+        <v>1.028399652993571</v>
       </c>
       <c r="F7">
-        <v>1.056797150349264</v>
+        <v>1.002934814438163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046287939584519</v>
+        <v>1.047914566848968</v>
       </c>
       <c r="J7">
-        <v>1.061219832416538</v>
+        <v>1.039983621016254</v>
       </c>
       <c r="K7">
-        <v>1.058512300287646</v>
+        <v>1.042908118991216</v>
       </c>
       <c r="L7">
-        <v>1.062813466547628</v>
+        <v>1.038164097864726</v>
       </c>
       <c r="M7">
-        <v>1.059228958356051</v>
+        <v>1.01299495781487</v>
       </c>
       <c r="N7">
-        <v>1.062726886302185</v>
+        <v>1.041460517045885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054633362687224</v>
+        <v>1.009507790584453</v>
       </c>
       <c r="D8">
-        <v>1.054372979596288</v>
+        <v>1.023992601798202</v>
       </c>
       <c r="E8">
-        <v>1.058299668099346</v>
+        <v>1.017460245233461</v>
       </c>
       <c r="F8">
-        <v>1.053823902655892</v>
+        <v>0.9876833843802315</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045548056947521</v>
+        <v>1.043201710958325</v>
       </c>
       <c r="J8">
-        <v>1.059528384312246</v>
+        <v>1.030843741545665</v>
       </c>
       <c r="K8">
-        <v>1.05705412415025</v>
+        <v>1.034857096901418</v>
       </c>
       <c r="L8">
-        <v>1.060970292265811</v>
+        <v>1.028408788426331</v>
       </c>
       <c r="M8">
-        <v>1.056506525055927</v>
+        <v>0.9990328178478661</v>
       </c>
       <c r="N8">
-        <v>1.061033036147574</v>
+        <v>1.03230765789809</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050809582285399</v>
+        <v>0.98712215246554</v>
       </c>
       <c r="D9">
-        <v>1.051342150049948</v>
+        <v>1.006254501365303</v>
       </c>
       <c r="E9">
-        <v>1.054590776442883</v>
+        <v>0.9964000123272485</v>
       </c>
       <c r="F9">
-        <v>1.048552950293224</v>
+        <v>0.9581413586370372</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04421963406032</v>
+        <v>1.033987756002058</v>
       </c>
       <c r="J9">
-        <v>1.056517658361932</v>
+        <v>1.013138002551209</v>
       </c>
       <c r="K9">
-        <v>1.054455478806698</v>
+        <v>1.019246912188935</v>
       </c>
       <c r="L9">
-        <v>1.057693877952693</v>
+        <v>1.009551768102063</v>
       </c>
       <c r="M9">
-        <v>1.051675115240479</v>
+        <v>0.9719521481319683</v>
       </c>
       <c r="N9">
-        <v>1.058018034621075</v>
+        <v>1.014576774723385</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048240730545649</v>
+        <v>0.9705487298501905</v>
       </c>
       <c r="D10">
-        <v>1.049303998569707</v>
+        <v>0.9931477553938339</v>
       </c>
       <c r="E10">
-        <v>1.052100509819019</v>
+        <v>0.9808454292475967</v>
       </c>
       <c r="F10">
-        <v>1.0450159716586</v>
+        <v>0.9361257637087089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043317033289626</v>
+        <v>1.027087942060955</v>
       </c>
       <c r="J10">
-        <v>1.054489376365819</v>
+        <v>0.9999816120670253</v>
       </c>
       <c r="K10">
-        <v>1.052702727374238</v>
+        <v>1.007641841279414</v>
       </c>
       <c r="L10">
-        <v>1.055489552534981</v>
+        <v>0.9955693574050861</v>
       </c>
       <c r="M10">
-        <v>1.048429663514031</v>
+        <v>0.9517527100948608</v>
       </c>
       <c r="N10">
-        <v>1.05598687223188</v>
+        <v>1.001401700655655</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047123496545224</v>
+        <v>0.9628808663945292</v>
       </c>
       <c r="D11">
-        <v>1.048417111306795</v>
+        <v>0.98709315053445</v>
       </c>
       <c r="E11">
-        <v>1.051017792934777</v>
+        <v>0.9736596824133503</v>
       </c>
       <c r="F11">
-        <v>1.043478584487077</v>
+        <v>0.9258866098288995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042922076483735</v>
+        <v>1.023878501470619</v>
       </c>
       <c r="J11">
-        <v>1.053605906909215</v>
+        <v>0.9938837418776968</v>
       </c>
       <c r="K11">
-        <v>1.051938784817433</v>
+        <v>1.002262646086747</v>
       </c>
       <c r="L11">
-        <v>1.054530101528351</v>
+        <v>0.9890960418273549</v>
       </c>
       <c r="M11">
-        <v>1.047018183311854</v>
+        <v>0.9423559877035508</v>
       </c>
       <c r="N11">
-        <v>1.055102148147313</v>
+        <v>0.9952951707912217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046707749446566</v>
+        <v>0.9599479939158283</v>
       </c>
       <c r="D12">
-        <v>1.048087012838483</v>
+        <v>0.9847790678593806</v>
       </c>
       <c r="E12">
-        <v>1.050614941936701</v>
+        <v>0.9709130096330103</v>
       </c>
       <c r="F12">
-        <v>1.042906618462265</v>
+        <v>0.9219600824487967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042774744223619</v>
+        <v>1.022648492033682</v>
       </c>
       <c r="J12">
-        <v>1.053276947861128</v>
+        <v>0.9915497699267475</v>
       </c>
       <c r="K12">
-        <v>1.051654258814913</v>
+        <v>1.000203804445959</v>
       </c>
       <c r="L12">
-        <v>1.05417295575371</v>
+        <v>0.9866195239865476</v>
       </c>
       <c r="M12">
-        <v>1.046492938218847</v>
+        <v>0.9387524163549195</v>
       </c>
       <c r="N12">
-        <v>1.054772721939646</v>
+        <v>0.9929578843323915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046796963171662</v>
+        <v>0.9605811380935856</v>
       </c>
       <c r="D13">
-        <v>1.048157850597447</v>
+        <v>0.9852785445088387</v>
       </c>
       <c r="E13">
-        <v>1.050701385992051</v>
+        <v>0.9715058731830648</v>
       </c>
       <c r="F13">
-        <v>1.043029348915945</v>
+        <v>0.9228082334039137</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042806376029075</v>
+        <v>1.022914131745157</v>
       </c>
       <c r="J13">
-        <v>1.053347547123028</v>
+        <v>0.9920536960359673</v>
       </c>
       <c r="K13">
-        <v>1.051715325396587</v>
+        <v>1.000648322896241</v>
       </c>
       <c r="L13">
-        <v>1.054249599539041</v>
+        <v>0.987154174156944</v>
       </c>
       <c r="M13">
-        <v>1.046605648939257</v>
+        <v>0.9395308071991338</v>
       </c>
       <c r="N13">
-        <v>1.054843421460595</v>
+        <v>0.9934625260744878</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047089146311427</v>
+        <v>0.9626402332340457</v>
       </c>
       <c r="D14">
-        <v>1.048389838999656</v>
+        <v>0.9869032500070078</v>
       </c>
       <c r="E14">
-        <v>1.050984507160422</v>
+        <v>0.9734342889446883</v>
       </c>
       <c r="F14">
-        <v>1.043431324392303</v>
+        <v>0.9255646698806447</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042909910805214</v>
+        <v>1.023777631249035</v>
       </c>
       <c r="J14">
-        <v>1.053578731449988</v>
+        <v>0.9936922788669548</v>
       </c>
       <c r="K14">
-        <v>1.051915281471212</v>
+        <v>1.002093751049018</v>
       </c>
       <c r="L14">
-        <v>1.054500595411719</v>
+        <v>0.9888928616816539</v>
       </c>
       <c r="M14">
-        <v>1.046974786118504</v>
+        <v>0.9420605277224885</v>
       </c>
       <c r="N14">
-        <v>1.055074934095816</v>
+        <v>0.9951034358810431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047269069126077</v>
+        <v>0.9638973223783451</v>
       </c>
       <c r="D15">
-        <v>1.048532685606572</v>
+        <v>0.9878953796852575</v>
       </c>
       <c r="E15">
-        <v>1.051158856563559</v>
+        <v>0.9746118383715767</v>
       </c>
       <c r="F15">
-        <v>1.043678872916177</v>
+        <v>0.9272460876407627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042973618577285</v>
+        <v>1.024304488738631</v>
       </c>
       <c r="J15">
-        <v>1.053721065353026</v>
+        <v>0.9946924340579302</v>
       </c>
       <c r="K15">
-        <v>1.052038379382722</v>
+        <v>1.002976019717182</v>
       </c>
       <c r="L15">
-        <v>1.054655140634744</v>
+        <v>0.9899542713422281</v>
       </c>
       <c r="M15">
-        <v>1.047202095793558</v>
+        <v>0.9436036442154472</v>
       </c>
       <c r="N15">
-        <v>1.055217470129323</v>
+        <v>0.9961050114071096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04831477267264</v>
+        <v>0.9710463927408648</v>
       </c>
       <c r="D16">
-        <v>1.049362765352801</v>
+        <v>0.9935409320431083</v>
       </c>
       <c r="E16">
-        <v>1.0521722715859</v>
+        <v>0.9813120362432414</v>
       </c>
       <c r="F16">
-        <v>1.045117876898703</v>
+        <v>0.936789048124488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043343157686608</v>
+        <v>1.027295902201474</v>
       </c>
       <c r="J16">
-        <v>1.05454789815985</v>
+        <v>1.00037715770773</v>
       </c>
       <c r="K16">
-        <v>1.052753321402098</v>
+        <v>1.007990770636399</v>
       </c>
       <c r="L16">
-        <v>1.055553122096422</v>
+        <v>0.9959894118991812</v>
       </c>
       <c r="M16">
-        <v>1.048523206062693</v>
+        <v>0.9523613949260865</v>
       </c>
       <c r="N16">
-        <v>1.056045477133572</v>
+        <v>1.001797808016539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048969387952311</v>
+        <v>0.9753922825019484</v>
       </c>
       <c r="D17">
-        <v>1.04988227625955</v>
+        <v>0.9969754626511731</v>
       </c>
       <c r="E17">
-        <v>1.052806765097235</v>
+        <v>0.9853879430340177</v>
       </c>
       <c r="F17">
-        <v>1.04601893632006</v>
+        <v>0.9425750931542995</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043573849872655</v>
+        <v>1.029110035651645</v>
       </c>
       <c r="J17">
-        <v>1.05506514215935</v>
+        <v>1.003830084932574</v>
       </c>
       <c r="K17">
-        <v>1.053200439894283</v>
+        <v>1.011036731604975</v>
       </c>
       <c r="L17">
-        <v>1.056115061165875</v>
+        <v>0.9996571188311967</v>
       </c>
       <c r="M17">
-        <v>1.049350228298089</v>
+        <v>0.9576709228111522</v>
       </c>
       <c r="N17">
-        <v>1.05656345567888</v>
+        <v>1.005255638794099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049350742134574</v>
+        <v>0.9778805900500671</v>
       </c>
       <c r="D18">
-        <v>1.050184879078251</v>
+        <v>0.9989428016763455</v>
       </c>
       <c r="E18">
-        <v>1.053176429701733</v>
+        <v>0.9877226500438879</v>
       </c>
       <c r="F18">
-        <v>1.046543946630136</v>
+        <v>0.9458831929698663</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043708011294345</v>
+        <v>1.030147144762815</v>
       </c>
       <c r="J18">
-        <v>1.055366340267148</v>
+        <v>1.005806097279431</v>
       </c>
       <c r="K18">
-        <v>1.053460756081725</v>
+        <v>1.012779808726878</v>
       </c>
       <c r="L18">
-        <v>1.056442352982767</v>
+        <v>1.00175672606724</v>
       </c>
       <c r="M18">
-        <v>1.049832022337206</v>
+        <v>0.9607063556303733</v>
       </c>
       <c r="N18">
-        <v>1.056865081522539</v>
+        <v>1.007234457305139</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04948069462049</v>
+        <v>0.9787214310469582</v>
       </c>
       <c r="D19">
-        <v>1.050287988179176</v>
+        <v>0.9996077331532054</v>
       </c>
       <c r="E19">
-        <v>1.053302404292007</v>
+        <v>0.9885117486387391</v>
       </c>
       <c r="F19">
-        <v>1.046722867169568</v>
+        <v>0.9470002972342904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04375368970259</v>
+        <v>1.030497325800491</v>
       </c>
       <c r="J19">
-        <v>1.05546895645726</v>
+        <v>1.006473651732168</v>
       </c>
       <c r="K19">
-        <v>1.05354943610266</v>
+        <v>1.013368661264489</v>
       </c>
       <c r="L19">
-        <v>1.056553870520059</v>
+        <v>1.002466149139013</v>
       </c>
       <c r="M19">
-        <v>1.049996201805246</v>
+        <v>0.9617313396608863</v>
       </c>
       <c r="N19">
-        <v>1.056967843439411</v>
+        <v>1.007902959761769</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04889920287514</v>
+        <v>0.9749308982665464</v>
       </c>
       <c r="D20">
-        <v>1.049826581112977</v>
+        <v>0.9966107433552689</v>
       </c>
       <c r="E20">
-        <v>1.052738734012533</v>
+        <v>0.9849551181921332</v>
       </c>
       <c r="F20">
-        <v>1.045922319579929</v>
+        <v>0.9419613263554876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043549139949976</v>
+        <v>1.028917602867974</v>
       </c>
       <c r="J20">
-        <v>1.055009698771003</v>
+        <v>1.003463608163272</v>
       </c>
       <c r="K20">
-        <v>1.053152518109794</v>
+        <v>1.010713451711391</v>
       </c>
       <c r="L20">
-        <v>1.056054819960454</v>
+        <v>0.9992677750067377</v>
       </c>
       <c r="M20">
-        <v>1.049261558301498</v>
+        <v>0.95710772547195</v>
       </c>
       <c r="N20">
-        <v>1.056507933554562</v>
+        <v>1.004888641585748</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047003126707017</v>
+        <v>0.9620363180961997</v>
       </c>
       <c r="D21">
-        <v>1.048321542786927</v>
+        <v>0.9864266872147769</v>
       </c>
       <c r="E21">
-        <v>1.050901154001578</v>
+        <v>0.9728686501986386</v>
       </c>
       <c r="F21">
-        <v>1.043312978073938</v>
+        <v>0.9247565285327174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042879439787239</v>
+        <v>1.023524439555947</v>
       </c>
       <c r="J21">
-        <v>1.053510675621373</v>
+        <v>0.9932117400642003</v>
       </c>
       <c r="K21">
-        <v>1.051856420587592</v>
+        <v>1.001669855229711</v>
       </c>
       <c r="L21">
-        <v>1.054426704583876</v>
+        <v>0.988382933620473</v>
       </c>
       <c r="M21">
-        <v>1.046866111124398</v>
+        <v>0.9413188563093366</v>
       </c>
       <c r="N21">
-        <v>1.055006781620119</v>
+        <v>0.9946222146580704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045806600623805</v>
+        <v>0.9534317042288852</v>
       </c>
       <c r="D22">
-        <v>1.047371387018978</v>
+        <v>0.9796412508595347</v>
       </c>
       <c r="E22">
-        <v>1.049741840868614</v>
+        <v>0.9648139788970694</v>
       </c>
       <c r="F22">
-        <v>1.041667088522514</v>
+        <v>0.9132143322805575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042454736881605</v>
+        <v>1.019911313036079</v>
       </c>
       <c r="J22">
-        <v>1.0525635483087</v>
+        <v>0.9863611899827603</v>
       </c>
       <c r="K22">
-        <v>1.051037086850984</v>
+        <v>0.9956271024738967</v>
       </c>
       <c r="L22">
-        <v>1.053398620918956</v>
+        <v>0.9811162583264825</v>
       </c>
       <c r="M22">
-        <v>1.04535443751114</v>
+        <v>0.9307261359080667</v>
       </c>
       <c r="N22">
-        <v>1.054058309278025</v>
+        <v>0.9877619360097457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046441324339207</v>
+        <v>0.9580446097299053</v>
       </c>
       <c r="D23">
-        <v>1.047875455220655</v>
+        <v>0.9832778037583844</v>
       </c>
       <c r="E23">
-        <v>1.050356795674966</v>
+        <v>0.9691309976983574</v>
       </c>
       <c r="F23">
-        <v>1.042540118487592</v>
+        <v>0.9194086485701088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04268022727064</v>
+        <v>1.021849570552246</v>
       </c>
       <c r="J23">
-        <v>1.053066083013248</v>
+        <v>0.9900346139856881</v>
       </c>
       <c r="K23">
-        <v>1.051471855434215</v>
+        <v>0.9988672874586687</v>
       </c>
       <c r="L23">
-        <v>1.053944052576882</v>
+        <v>0.9850121635132529</v>
       </c>
       <c r="M23">
-        <v>1.046156341629046</v>
+        <v>0.9364108439544898</v>
       </c>
       <c r="N23">
-        <v>1.054561557639495</v>
+        <v>0.9914405766961051</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048930917947962</v>
+        <v>0.9751395210812057</v>
       </c>
       <c r="D24">
-        <v>1.049851748647103</v>
+        <v>0.9967756548492062</v>
       </c>
       <c r="E24">
-        <v>1.052769475643373</v>
+        <v>0.9851508243394093</v>
       </c>
       <c r="F24">
-        <v>1.045965978262756</v>
+        <v>0.9422388663366288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043560306528288</v>
+        <v>1.029004619657808</v>
       </c>
       <c r="J24">
-        <v>1.055034752801133</v>
+        <v>1.00362932010067</v>
       </c>
       <c r="K24">
-        <v>1.053174173385772</v>
+        <v>1.010859631197907</v>
       </c>
       <c r="L24">
-        <v>1.056082041843958</v>
+        <v>0.9994438247507259</v>
       </c>
       <c r="M24">
-        <v>1.04930162629082</v>
+        <v>0.9573623991006889</v>
       </c>
       <c r="N24">
-        <v>1.056533023164288</v>
+        <v>1.005054588853105</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051801511731259</v>
+        <v>0.9931711637335991</v>
       </c>
       <c r="D25">
-        <v>1.052128737565832</v>
+        <v>1.011044241415345</v>
       </c>
       <c r="E25">
-        <v>1.055552658580613</v>
+        <v>1.002085094880237</v>
       </c>
       <c r="F25">
-        <v>1.049919548310517</v>
+        <v>0.9661431501995441</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044566026727298</v>
+        <v>1.036491027298774</v>
       </c>
       <c r="J25">
-        <v>1.057299665394662</v>
+        <v>1.017930551420168</v>
       </c>
       <c r="K25">
-        <v>1.055130819258451</v>
+        <v>1.02347349530615</v>
       </c>
       <c r="L25">
-        <v>1.058544377923501</v>
+        <v>1.014651128440392</v>
       </c>
       <c r="M25">
-        <v>1.052928355143053</v>
+        <v>0.9792908183722659</v>
       </c>
       <c r="N25">
-        <v>1.058801152193489</v>
+        <v>1.019376129561451</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006399823096432</v>
+        <v>1.02284926036535</v>
       </c>
       <c r="D2">
-        <v>1.021528018819045</v>
+        <v>1.040565736178519</v>
       </c>
       <c r="E2">
-        <v>1.014532772275553</v>
+        <v>1.040283749734642</v>
       </c>
       <c r="F2">
-        <v>0.9835922941986713</v>
+        <v>1.046435895093804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041931265014972</v>
+        <v>1.057109672635178</v>
       </c>
       <c r="J2">
-        <v>1.028390787092782</v>
+        <v>1.044367389638707</v>
       </c>
       <c r="K2">
-        <v>1.032695365087148</v>
+        <v>1.051487437682572</v>
       </c>
       <c r="L2">
-        <v>1.02579328827124</v>
+        <v>1.051209007855899</v>
       </c>
       <c r="M2">
-        <v>0.9952850482077498</v>
+        <v>1.057284100204938</v>
       </c>
       <c r="N2">
-        <v>1.029851219968525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017596964333479</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053908791125899</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047476306349857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015450048927854</v>
+        <v>1.027842275139417</v>
       </c>
       <c r="D3">
-        <v>1.028706001015325</v>
+        <v>1.044008339574145</v>
       </c>
       <c r="E3">
-        <v>1.023060611513992</v>
+        <v>1.044549777383115</v>
       </c>
       <c r="F3">
-        <v>0.9954979888225551</v>
+        <v>1.050173389509569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045621537443361</v>
+        <v>1.058372910814393</v>
       </c>
       <c r="J3">
-        <v>1.035528211385259</v>
+        <v>1.04760167231369</v>
       </c>
       <c r="K3">
-        <v>1.038984299684351</v>
+        <v>1.054107466325098</v>
       </c>
       <c r="L3">
-        <v>1.033406690916999</v>
+        <v>1.05464268328977</v>
       </c>
       <c r="M3">
-        <v>1.006188799676371</v>
+        <v>1.060202150633241</v>
       </c>
       <c r="N3">
-        <v>1.036998780222172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018778846675373</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056218186941689</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049326221356935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021079693573297</v>
+        <v>1.031005097785618</v>
       </c>
       <c r="D4">
-        <v>1.033172663473452</v>
+        <v>1.046190975012008</v>
       </c>
       <c r="E4">
-        <v>1.028370267822588</v>
+        <v>1.047257840784327</v>
       </c>
       <c r="F4">
-        <v>1.002893915743113</v>
+        <v>1.052547162649238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047901985597907</v>
+        <v>1.059158991410369</v>
       </c>
       <c r="J4">
-        <v>1.039959128393372</v>
+        <v>1.049647620310872</v>
       </c>
       <c r="K4">
-        <v>1.042886553345375</v>
+        <v>1.055762133651763</v>
       </c>
       <c r="L4">
-        <v>1.038137934213885</v>
+        <v>1.056817495308364</v>
       </c>
       <c r="M4">
-        <v>1.012957538783932</v>
+        <v>1.062050203579728</v>
       </c>
       <c r="N4">
-        <v>1.041435989640671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01952570627923</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057680764537672</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050497068740242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02339610219252</v>
+        <v>1.03232512771397</v>
       </c>
       <c r="D5">
-        <v>1.035010808475978</v>
+        <v>1.047104137792685</v>
       </c>
       <c r="E5">
-        <v>1.030556130367192</v>
+        <v>1.048389948505432</v>
       </c>
       <c r="F5">
-        <v>1.005935311512077</v>
+        <v>1.053539758450436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048836631430489</v>
+        <v>1.059485177319112</v>
       </c>
       <c r="J5">
-        <v>1.041780142198201</v>
+        <v>1.050502796438765</v>
       </c>
       <c r="K5">
-        <v>1.044489796211703</v>
+        <v>1.05645424828401</v>
       </c>
       <c r="L5">
-        <v>1.040083526657581</v>
+        <v>1.057726569987975</v>
       </c>
       <c r="M5">
-        <v>1.015739810059122</v>
+        <v>1.062822757807335</v>
       </c>
       <c r="N5">
-        <v>1.043259589493976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019839509580289</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.058292175037403</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050993505823802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023782193689915</v>
+        <v>1.032553224533459</v>
       </c>
       <c r="D6">
-        <v>1.035317196561873</v>
+        <v>1.047264160646024</v>
       </c>
       <c r="E6">
-        <v>1.030920526706003</v>
+        <v>1.04858630128035</v>
       </c>
       <c r="F6">
-        <v>1.006442153136872</v>
+        <v>1.05371188101746</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048992196684724</v>
+        <v>1.05954323547675</v>
       </c>
       <c r="J6">
-        <v>1.042083535046759</v>
+        <v>1.050652951577404</v>
       </c>
       <c r="K6">
-        <v>1.044756876366889</v>
+        <v>1.056577135662039</v>
       </c>
       <c r="L6">
-        <v>1.040407742595196</v>
+        <v>1.057885470953472</v>
       </c>
       <c r="M6">
-        <v>1.016203396362293</v>
+        <v>1.062957930644068</v>
       </c>
       <c r="N6">
-        <v>1.043563413195177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019896813847756</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.058399152709721</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051089011442128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021110838316137</v>
+        <v>1.031042721834908</v>
       </c>
       <c r="D7">
-        <v>1.033197376946045</v>
+        <v>1.046222911463931</v>
       </c>
       <c r="E7">
-        <v>1.028399652993571</v>
+        <v>1.047291850683108</v>
       </c>
       <c r="F7">
-        <v>1.002934814438163</v>
+        <v>1.05257682826016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047914566848968</v>
+        <v>1.059173399411521</v>
       </c>
       <c r="J7">
-        <v>1.039983621016254</v>
+        <v>1.049678545026298</v>
       </c>
       <c r="K7">
-        <v>1.042908118991216</v>
+        <v>1.055790900124954</v>
       </c>
       <c r="L7">
-        <v>1.038164097864726</v>
+        <v>1.056848317586443</v>
       </c>
       <c r="M7">
-        <v>1.01299495781487</v>
+        <v>1.062076751032583</v>
       </c>
       <c r="N7">
-        <v>1.041460517045885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019543117952805</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057701774580825</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050537233354561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009507790584453</v>
+        <v>1.024576609538494</v>
       </c>
       <c r="D8">
-        <v>1.023992601798202</v>
+        <v>1.041763587303381</v>
       </c>
       <c r="E8">
-        <v>1.017460245233461</v>
+        <v>1.041760606575386</v>
       </c>
       <c r="F8">
-        <v>0.9876833843802315</v>
+        <v>1.047729250692706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043201710958325</v>
+        <v>1.057555819221666</v>
       </c>
       <c r="J8">
-        <v>1.030843741545665</v>
+        <v>1.045495146962549</v>
       </c>
       <c r="K8">
-        <v>1.034857096901418</v>
+        <v>1.052406068786106</v>
       </c>
       <c r="L8">
-        <v>1.028408788426331</v>
+        <v>1.052403124506613</v>
       </c>
       <c r="M8">
-        <v>0.9990328178478661</v>
+        <v>1.058299299663793</v>
       </c>
       <c r="N8">
-        <v>1.03230765789809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018017282610601</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054712238415335</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048148463249458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.98712215246554</v>
+        <v>1.01259949556282</v>
       </c>
       <c r="D9">
-        <v>1.006254501365303</v>
+        <v>1.033512588547779</v>
       </c>
       <c r="E9">
-        <v>0.9964000123272485</v>
+        <v>1.031560458822782</v>
       </c>
       <c r="F9">
-        <v>0.9581413586370372</v>
+        <v>1.038800724127183</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033987756002058</v>
+        <v>1.054441454998948</v>
       </c>
       <c r="J9">
-        <v>1.013138002551209</v>
+        <v>1.037715045996211</v>
       </c>
       <c r="K9">
-        <v>1.019246912188935</v>
+        <v>1.046084378782334</v>
       </c>
       <c r="L9">
-        <v>1.009551768102063</v>
+        <v>1.044161431937218</v>
       </c>
       <c r="M9">
-        <v>0.9719521481319683</v>
+        <v>1.051294160474871</v>
       </c>
       <c r="N9">
-        <v>1.014576774723385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015163333638206</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04916822658596</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043675547244459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9705487298501905</v>
+        <v>1.004332576940839</v>
       </c>
       <c r="D10">
-        <v>0.9931477553938339</v>
+        <v>1.027855052687868</v>
       </c>
       <c r="E10">
-        <v>0.9808454292475967</v>
+        <v>1.024583123309254</v>
       </c>
       <c r="F10">
-        <v>0.9361257637087089</v>
+        <v>1.032731773093201</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027087942060955</v>
+        <v>1.052243017599209</v>
       </c>
       <c r="J10">
-        <v>0.9999816120670253</v>
+        <v>1.032375345851556</v>
       </c>
       <c r="K10">
-        <v>1.007641841279414</v>
+        <v>1.041738951992441</v>
       </c>
       <c r="L10">
-        <v>0.9955693574050861</v>
+        <v>1.038522268130538</v>
       </c>
       <c r="M10">
-        <v>0.9517527100948608</v>
+        <v>1.046534167133066</v>
       </c>
       <c r="N10">
-        <v>1.001401700655655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013233399007487</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045452052786499</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040619770503803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9628808663945292</v>
+        <v>1.001686995317747</v>
       </c>
       <c r="D11">
-        <v>0.98709315053445</v>
+        <v>1.026207874883729</v>
       </c>
       <c r="E11">
-        <v>0.9736596824133503</v>
+        <v>1.022576830843555</v>
       </c>
       <c r="F11">
-        <v>0.9258866098288995</v>
+        <v>1.03123412291642</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023878501470619</v>
+        <v>1.051687027780625</v>
       </c>
       <c r="J11">
-        <v>0.9938837418776968</v>
+        <v>1.030989761327208</v>
       </c>
       <c r="K11">
-        <v>1.002262646086747</v>
+        <v>1.040651913569268</v>
       </c>
       <c r="L11">
-        <v>0.9890960418273549</v>
+        <v>1.037085181213122</v>
       </c>
       <c r="M11">
-        <v>0.9423559877035508</v>
+        <v>1.045590106157916</v>
       </c>
       <c r="N11">
-        <v>0.9952951707912217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012990013801072</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045137822717848</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039883817648163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9599479939158283</v>
+        <v>1.001069325282343</v>
       </c>
       <c r="D12">
-        <v>0.9847790678593806</v>
+        <v>1.02589975860833</v>
       </c>
       <c r="E12">
-        <v>0.9709130096330103</v>
+        <v>1.022218371705019</v>
       </c>
       <c r="F12">
-        <v>0.9219600824487967</v>
+        <v>1.031104986279153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022648492033682</v>
+        <v>1.051632477025872</v>
       </c>
       <c r="J12">
-        <v>0.9915497699267475</v>
+        <v>1.030828498188579</v>
       </c>
       <c r="K12">
-        <v>1.000203804445959</v>
+        <v>1.040547031209564</v>
       </c>
       <c r="L12">
-        <v>0.9866195239865476</v>
+        <v>1.036931933062756</v>
       </c>
       <c r="M12">
-        <v>0.9387524163549195</v>
+        <v>1.045659578867037</v>
       </c>
       <c r="N12">
-        <v>0.9929578843323915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013129934475631</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045516898433518</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039809663337434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9605811380935856</v>
+        <v>1.002002803159794</v>
       </c>
       <c r="D13">
-        <v>0.9852785445088387</v>
+        <v>1.026630901159525</v>
       </c>
       <c r="E13">
-        <v>0.9715058731830648</v>
+        <v>1.02313442942625</v>
       </c>
       <c r="F13">
-        <v>0.9228082334039137</v>
+        <v>1.032053033400857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022914131745157</v>
+        <v>1.051980623305597</v>
       </c>
       <c r="J13">
-        <v>0.9920536960359673</v>
+        <v>1.031630330026599</v>
       </c>
       <c r="K13">
-        <v>1.000648322896241</v>
+        <v>1.041222698753332</v>
       </c>
       <c r="L13">
-        <v>0.987154174156944</v>
+        <v>1.037788845027509</v>
       </c>
       <c r="M13">
-        <v>0.9395308071991338</v>
+        <v>1.046548814169121</v>
       </c>
       <c r="N13">
-        <v>0.9934625260744878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013592948831517</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046494903019814</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040284900877523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9626402332340457</v>
+        <v>1.00335504461821</v>
       </c>
       <c r="D14">
-        <v>0.9869032500070078</v>
+        <v>1.02761130683055</v>
       </c>
       <c r="E14">
-        <v>0.9734342889446883</v>
+        <v>1.024349384965424</v>
       </c>
       <c r="F14">
-        <v>0.9255646698806447</v>
+        <v>1.033201764711463</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023777631249035</v>
+        <v>1.052405376701108</v>
       </c>
       <c r="J14">
-        <v>0.9936922788669548</v>
+        <v>1.03262436843984</v>
       </c>
       <c r="K14">
-        <v>1.002093751049018</v>
+        <v>1.042046958017948</v>
       </c>
       <c r="L14">
-        <v>0.9888928616816539</v>
+        <v>1.038842653332423</v>
       </c>
       <c r="M14">
-        <v>0.9420605277224885</v>
+        <v>1.047539763364793</v>
       </c>
       <c r="N14">
-        <v>0.9951034358810431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014061359481532</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047450546150363</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040869085996997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9638973223783451</v>
+        <v>1.004033177098766</v>
       </c>
       <c r="D15">
-        <v>0.9878953796852575</v>
+        <v>1.028088021036665</v>
       </c>
       <c r="E15">
-        <v>0.9746118383715767</v>
+        <v>1.024936632456915</v>
       </c>
       <c r="F15">
-        <v>0.9272460876407627</v>
+        <v>1.033732786704967</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024304488738631</v>
+        <v>1.052602484478969</v>
       </c>
       <c r="J15">
-        <v>0.9946924340579302</v>
+        <v>1.033089048805626</v>
       </c>
       <c r="K15">
-        <v>1.002976019717182</v>
+        <v>1.04242989297874</v>
       </c>
       <c r="L15">
-        <v>0.9899542713422281</v>
+        <v>1.039333715687965</v>
       </c>
       <c r="M15">
-        <v>0.9436036442154472</v>
+        <v>1.04797685220573</v>
       </c>
       <c r="N15">
-        <v>0.9961050114071096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014253252873736</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047833355054224</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041145655638105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9710463927408648</v>
+        <v>1.007365910554861</v>
       </c>
       <c r="D16">
-        <v>0.9935409320431083</v>
+        <v>1.030355543972697</v>
       </c>
       <c r="E16">
-        <v>0.9813120362432414</v>
+        <v>1.027728770731398</v>
       </c>
       <c r="F16">
-        <v>0.936789048124488</v>
+        <v>1.036150594361074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027295902201474</v>
+        <v>1.053490128725336</v>
       </c>
       <c r="J16">
-        <v>1.00037715770773</v>
+        <v>1.035214439426528</v>
       </c>
       <c r="K16">
-        <v>1.007990770636399</v>
+        <v>1.044162393911931</v>
       </c>
       <c r="L16">
-        <v>0.9959894118991812</v>
+        <v>1.041579531315695</v>
       </c>
       <c r="M16">
-        <v>0.9523613949260865</v>
+        <v>1.049861583543332</v>
       </c>
       <c r="N16">
-        <v>1.001797808016539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014986325759278</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04928457137137</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042373710633606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9753922825019484</v>
+        <v>1.009215351472625</v>
       </c>
       <c r="D17">
-        <v>0.9969754626511731</v>
+        <v>1.031582502308447</v>
       </c>
       <c r="E17">
-        <v>0.9853879430340177</v>
+        <v>1.029235212342126</v>
       </c>
       <c r="F17">
-        <v>0.9425750931542995</v>
+        <v>1.037400665749171</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029110035651645</v>
+        <v>1.053945280919025</v>
       </c>
       <c r="J17">
-        <v>1.003830084932574</v>
+        <v>1.036323946097914</v>
       </c>
       <c r="K17">
-        <v>1.011036731604975</v>
+        <v>1.045058544736814</v>
       </c>
       <c r="L17">
-        <v>0.9996571188311967</v>
+        <v>1.042749350427202</v>
       </c>
       <c r="M17">
-        <v>0.9576709228111522</v>
+        <v>1.050783234174173</v>
       </c>
       <c r="N17">
-        <v>1.005255638794099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015304150800649</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049884912537197</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043009872565184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9778805900500671</v>
+        <v>1.009931413358699</v>
       </c>
       <c r="D18">
-        <v>0.9989428016763455</v>
+        <v>1.031994885763023</v>
       </c>
       <c r="E18">
-        <v>0.9877226500438879</v>
+        <v>1.029734410994661</v>
       </c>
       <c r="F18">
-        <v>0.9458831929698663</v>
+        <v>1.037711550231316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030147144762815</v>
+        <v>1.054056136458166</v>
       </c>
       <c r="J18">
-        <v>1.005806097279431</v>
+        <v>1.036624403948552</v>
       </c>
       <c r="K18">
-        <v>1.012779808726878</v>
+        <v>1.045283290271561</v>
       </c>
       <c r="L18">
-        <v>1.00175672606724</v>
+        <v>1.043058896445684</v>
       </c>
       <c r="M18">
-        <v>0.9607063556303733</v>
+        <v>1.050909604666014</v>
       </c>
       <c r="N18">
-        <v>1.007234457305139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015269250512212</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049748975499746</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043157240554978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9787214310469582</v>
+        <v>1.009647853061956</v>
       </c>
       <c r="D19">
-        <v>0.9996077331532054</v>
+        <v>1.031695284771483</v>
       </c>
       <c r="E19">
-        <v>0.9885117486387391</v>
+        <v>1.029343246143924</v>
       </c>
       <c r="F19">
-        <v>0.9470002972342904</v>
+        <v>1.037190197709917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030497325800491</v>
+        <v>1.053870753393688</v>
       </c>
       <c r="J19">
-        <v>1.006473651732168</v>
+        <v>1.036218739440821</v>
       </c>
       <c r="K19">
-        <v>1.013368661264489</v>
+        <v>1.044926725404895</v>
       </c>
       <c r="L19">
-        <v>1.002466149139013</v>
+        <v>1.042612061532282</v>
       </c>
       <c r="M19">
-        <v>0.9617313396608863</v>
+        <v>1.050335166931633</v>
       </c>
       <c r="N19">
-        <v>1.007902959761769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014941102919587</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048972113948966</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042911480884273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9749308982665464</v>
+        <v>1.006540157456314</v>
       </c>
       <c r="D20">
-        <v>0.9966107433552689</v>
+        <v>1.029379938635064</v>
       </c>
       <c r="E20">
-        <v>0.9849551181921332</v>
+        <v>1.026449923129537</v>
       </c>
       <c r="F20">
-        <v>0.9419613263554876</v>
+        <v>1.034355841864889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028917602867974</v>
+        <v>1.052847865261705</v>
       </c>
       <c r="J20">
-        <v>1.003463608163272</v>
+        <v>1.033821274313496</v>
       </c>
       <c r="K20">
-        <v>1.010713451711391</v>
+        <v>1.042925127646158</v>
       </c>
       <c r="L20">
-        <v>0.9992677750067377</v>
+        <v>1.04004309809357</v>
       </c>
       <c r="M20">
-        <v>0.95710772547195</v>
+        <v>1.047820337980313</v>
       </c>
       <c r="N20">
-        <v>1.004888641585748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013776323938177</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046459451902013</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041500199025745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9620363180961997</v>
+        <v>1.000102016208599</v>
       </c>
       <c r="D21">
-        <v>0.9864266872147769</v>
+        <v>1.024948213485618</v>
       </c>
       <c r="E21">
-        <v>0.9728686501986386</v>
+        <v>1.020986571048976</v>
       </c>
       <c r="F21">
-        <v>0.9247565285327174</v>
+        <v>1.029558892565595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023524439555947</v>
+        <v>1.051079316299204</v>
       </c>
       <c r="J21">
-        <v>0.9932117400642003</v>
+        <v>1.029595472785676</v>
       </c>
       <c r="K21">
-        <v>1.001669855229711</v>
+        <v>1.039471863145357</v>
       </c>
       <c r="L21">
-        <v>0.988382933620473</v>
+        <v>1.035580963639745</v>
       </c>
       <c r="M21">
-        <v>0.9413188563093366</v>
+        <v>1.044001097866909</v>
       </c>
       <c r="N21">
-        <v>0.9946222146580704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012198942035518</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043396302297237</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039061871978516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9534317042288852</v>
+        <v>0.995990819994227</v>
       </c>
       <c r="D22">
-        <v>0.9796412508595347</v>
+        <v>1.022127190386274</v>
       </c>
       <c r="E22">
-        <v>0.9648139788970694</v>
+        <v>1.017518245905181</v>
       </c>
       <c r="F22">
-        <v>0.9132143322805575</v>
+        <v>1.026531648201096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019911313036079</v>
+        <v>1.04994132172202</v>
       </c>
       <c r="J22">
-        <v>0.9863611899827603</v>
+        <v>1.026907994082304</v>
       </c>
       <c r="K22">
-        <v>0.9956271024738967</v>
+        <v>1.037272688690723</v>
       </c>
       <c r="L22">
-        <v>0.9811162583264825</v>
+        <v>1.032750471908465</v>
       </c>
       <c r="M22">
-        <v>0.9307261359080667</v>
+        <v>1.041595215382682</v>
       </c>
       <c r="N22">
-        <v>0.9877619360097457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011201797514759</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041492212737155</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037493554246282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9580446097299053</v>
+        <v>0.998159446450289</v>
       </c>
       <c r="D23">
-        <v>0.9832778037583844</v>
+        <v>1.023609543346551</v>
       </c>
       <c r="E23">
-        <v>0.9691309976983574</v>
+        <v>1.019345069212715</v>
       </c>
       <c r="F23">
-        <v>0.9194086485701088</v>
+        <v>1.028126305378048</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021849570552246</v>
+        <v>1.05053876293569</v>
       </c>
       <c r="J23">
-        <v>0.9900346139856881</v>
+        <v>1.028319391401345</v>
       </c>
       <c r="K23">
-        <v>0.9988672874586687</v>
+        <v>1.038425035033398</v>
       </c>
       <c r="L23">
-        <v>0.9850121635132529</v>
+        <v>1.034238626327117</v>
       </c>
       <c r="M23">
-        <v>0.9364108439544898</v>
+        <v>1.04286003103899</v>
       </c>
       <c r="N23">
-        <v>0.9914405766961051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011718464918792</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042493227458503</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038298714721869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9751395210812057</v>
+        <v>1.006515474998283</v>
       </c>
       <c r="D24">
-        <v>0.9967756548492062</v>
+        <v>1.02933991461451</v>
       </c>
       <c r="E24">
-        <v>0.9851508243394093</v>
+        <v>1.026405028203563</v>
       </c>
       <c r="F24">
-        <v>0.9422388663366288</v>
+        <v>1.034292839282697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029004619657808</v>
+        <v>1.05281948027233</v>
       </c>
       <c r="J24">
-        <v>1.00362932010067</v>
+        <v>1.033765003522489</v>
       </c>
       <c r="K24">
-        <v>1.010859631197907</v>
+        <v>1.042870661134741</v>
       </c>
       <c r="L24">
-        <v>0.9994438247507259</v>
+        <v>1.039983784072284</v>
       </c>
       <c r="M24">
-        <v>0.9573623991006889</v>
+        <v>1.047743357879688</v>
       </c>
       <c r="N24">
-        <v>1.005054588853105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013722425306292</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046358032348312</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041434489400153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9931711637335991</v>
+        <v>1.015799066737639</v>
       </c>
       <c r="D25">
-        <v>1.011044241415345</v>
+        <v>1.035723277421256</v>
       </c>
       <c r="E25">
-        <v>1.002085094880237</v>
+        <v>1.034282282463116</v>
       </c>
       <c r="F25">
-        <v>0.9661431501995441</v>
+        <v>1.041181420780281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036491027298774</v>
+        <v>1.055293516788967</v>
       </c>
       <c r="J25">
-        <v>1.017930551420168</v>
+        <v>1.039806181728568</v>
       </c>
       <c r="K25">
-        <v>1.02347349530615</v>
+        <v>1.047791237882412</v>
       </c>
       <c r="L25">
-        <v>1.014651128440392</v>
+        <v>1.046370738870542</v>
       </c>
       <c r="M25">
-        <v>0.9792908183722659</v>
+        <v>1.053172397173431</v>
       </c>
       <c r="N25">
-        <v>1.019376129561451</v>
+        <v>1.015941953312309</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050654705920279</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044910687254803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02284926036535</v>
+        <v>1.020914296048559</v>
       </c>
       <c r="D2">
-        <v>1.040565736178519</v>
+        <v>1.038106891455506</v>
       </c>
       <c r="E2">
-        <v>1.040283749734642</v>
+        <v>1.03837661233677</v>
       </c>
       <c r="F2">
-        <v>1.046435895093804</v>
+        <v>1.044580076005211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057109672635178</v>
+        <v>1.055860736127378</v>
       </c>
       <c r="J2">
-        <v>1.044367389638707</v>
+        <v>1.042486964673474</v>
       </c>
       <c r="K2">
-        <v>1.051487437682572</v>
+        <v>1.049059686878215</v>
       </c>
       <c r="L2">
-        <v>1.051209007855899</v>
+        <v>1.049325987961677</v>
       </c>
       <c r="M2">
-        <v>1.057284100204938</v>
+        <v>1.05545140531353</v>
       </c>
       <c r="N2">
-        <v>1.017596964333479</v>
+        <v>1.017813826060765</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053908791125899</v>
+        <v>1.052458360942035</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047476306349857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045768389486858</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024809079534216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027842275139417</v>
+        <v>1.025537596166384</v>
       </c>
       <c r="D3">
-        <v>1.044008339574145</v>
+        <v>1.041181352206468</v>
       </c>
       <c r="E3">
-        <v>1.044549777383115</v>
+        <v>1.04229118144323</v>
       </c>
       <c r="F3">
-        <v>1.050173389509569</v>
+        <v>1.048010285860554</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058372910814393</v>
+        <v>1.056935505672707</v>
       </c>
       <c r="J3">
-        <v>1.04760167231369</v>
+        <v>1.045355488589177</v>
       </c>
       <c r="K3">
-        <v>1.054107466325098</v>
+        <v>1.051313089433443</v>
       </c>
       <c r="L3">
-        <v>1.05464268328977</v>
+        <v>1.052410090273974</v>
       </c>
       <c r="M3">
-        <v>1.060202150633241</v>
+        <v>1.058063619573115</v>
       </c>
       <c r="N3">
-        <v>1.018778846675373</v>
+        <v>1.018628322346896</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056218186941689</v>
+        <v>1.054525716987148</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049326221356935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047358795063657</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025328247604299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031005097785618</v>
+        <v>1.028469845212865</v>
       </c>
       <c r="D4">
-        <v>1.046190975012008</v>
+        <v>1.043133123611293</v>
       </c>
       <c r="E4">
-        <v>1.047257840784327</v>
+        <v>1.044779608527007</v>
       </c>
       <c r="F4">
-        <v>1.052547162649238</v>
+        <v>1.050191834633286</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059158991410369</v>
+        <v>1.057603154828998</v>
       </c>
       <c r="J4">
-        <v>1.049647620310872</v>
+        <v>1.047172299353401</v>
       </c>
       <c r="K4">
-        <v>1.055762133651763</v>
+        <v>1.052737415322267</v>
       </c>
       <c r="L4">
-        <v>1.056817495308364</v>
+        <v>1.054366030340812</v>
       </c>
       <c r="M4">
-        <v>1.062050203579728</v>
+        <v>1.059719999257996</v>
       </c>
       <c r="N4">
-        <v>1.01952570627923</v>
+        <v>1.019144064963629</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057680764537672</v>
+        <v>1.055836604448675</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050497068740242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048366857726152</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025653934157374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03232512771397</v>
+        <v>1.029693919944524</v>
       </c>
       <c r="D5">
-        <v>1.047104137792685</v>
+        <v>1.043950176634098</v>
       </c>
       <c r="E5">
-        <v>1.048389948505432</v>
+        <v>1.045820252780689</v>
       </c>
       <c r="F5">
-        <v>1.053539758450436</v>
+        <v>1.051104413383209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059485177319112</v>
+        <v>1.057879982315364</v>
       </c>
       <c r="J5">
-        <v>1.050502796438765</v>
+        <v>1.047931905184678</v>
       </c>
       <c r="K5">
-        <v>1.05645424828401</v>
+        <v>1.053333546399038</v>
       </c>
       <c r="L5">
-        <v>1.057726569987975</v>
+        <v>1.055183872543242</v>
       </c>
       <c r="M5">
-        <v>1.062822757807335</v>
+        <v>1.060412690676781</v>
       </c>
       <c r="N5">
-        <v>1.019839509580289</v>
+        <v>1.01936081306063</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058292175037403</v>
+        <v>1.056384811719602</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050993505823802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048796143603347</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025790609277135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032553224533459</v>
+        <v>1.029904820144027</v>
       </c>
       <c r="D6">
-        <v>1.047264160646024</v>
+        <v>1.044093268335365</v>
       </c>
       <c r="E6">
-        <v>1.04858630128035</v>
+        <v>1.046000255467961</v>
       </c>
       <c r="F6">
-        <v>1.05371188101746</v>
+        <v>1.051262322732408</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05954323547675</v>
+        <v>1.057929345671112</v>
       </c>
       <c r="J6">
-        <v>1.050652951577404</v>
+        <v>1.048064941105733</v>
       </c>
       <c r="K6">
-        <v>1.056577135662039</v>
+        <v>1.053439526924509</v>
       </c>
       <c r="L6">
-        <v>1.057885470953472</v>
+        <v>1.055326467625225</v>
       </c>
       <c r="M6">
-        <v>1.062957930644068</v>
+        <v>1.060533680012357</v>
       </c>
       <c r="N6">
-        <v>1.019896813847756</v>
+        <v>1.019400171871188</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058399152709721</v>
+        <v>1.056480564609961</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051089011442128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048880569412794</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025816042389188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031042721834908</v>
+        <v>1.028515130710925</v>
       </c>
       <c r="D7">
-        <v>1.046222911463931</v>
+        <v>1.043170194652604</v>
       </c>
       <c r="E7">
-        <v>1.047291850683108</v>
+        <v>1.044820534011228</v>
       </c>
       <c r="F7">
-        <v>1.05257682826016</v>
+        <v>1.050226932263538</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059173399411521</v>
+        <v>1.057620168473306</v>
       </c>
       <c r="J7">
-        <v>1.049678545026298</v>
+        <v>1.047210676271649</v>
       </c>
       <c r="K7">
-        <v>1.055790900124954</v>
+        <v>1.052771247083813</v>
       </c>
       <c r="L7">
-        <v>1.056848317586443</v>
+        <v>1.054403682302857</v>
       </c>
       <c r="M7">
-        <v>1.062076751032583</v>
+        <v>1.059751910587377</v>
       </c>
       <c r="N7">
-        <v>1.019543117952805</v>
+        <v>1.019186386155598</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057701774580825</v>
+        <v>1.05586185960316</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050537233354561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048412614879659</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025666427421158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024576609538494</v>
+        <v>1.022548367765244</v>
       </c>
       <c r="D8">
-        <v>1.041763587303381</v>
+        <v>1.039203135049028</v>
       </c>
       <c r="E8">
-        <v>1.041760606575386</v>
+        <v>1.039763545604097</v>
       </c>
       <c r="F8">
-        <v>1.047729250692706</v>
+        <v>1.045792597003044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057555819221666</v>
+        <v>1.056254821770339</v>
       </c>
       <c r="J8">
-        <v>1.045495146962549</v>
+        <v>1.04352211288429</v>
       </c>
       <c r="K8">
-        <v>1.052406068786106</v>
+        <v>1.049877021741899</v>
       </c>
       <c r="L8">
-        <v>1.052403124506613</v>
+        <v>1.050430542137013</v>
       </c>
       <c r="M8">
-        <v>1.058299299663793</v>
+        <v>1.056386047473151</v>
       </c>
       <c r="N8">
-        <v>1.018017282610601</v>
+        <v>1.018197128372546</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054712238415335</v>
+        <v>1.05319805517273</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048148463249458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046371199926258</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025006988606547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01259949556282</v>
+        <v>1.011489772491105</v>
       </c>
       <c r="D9">
-        <v>1.033512588547779</v>
+        <v>1.031855996555669</v>
       </c>
       <c r="E9">
-        <v>1.031560458822782</v>
+        <v>1.030432985934833</v>
       </c>
       <c r="F9">
-        <v>1.038800724127183</v>
+        <v>1.037622636420549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054441454998948</v>
+        <v>1.053601683654462</v>
       </c>
       <c r="J9">
-        <v>1.037715045996211</v>
+        <v>1.036643220848867</v>
       </c>
       <c r="K9">
-        <v>1.046084378782334</v>
+        <v>1.044452542576709</v>
       </c>
       <c r="L9">
-        <v>1.044161431937218</v>
+        <v>1.043050878046788</v>
       </c>
       <c r="M9">
-        <v>1.051294160474871</v>
+        <v>1.050133440563167</v>
       </c>
       <c r="N9">
-        <v>1.015163333638206</v>
+        <v>1.016250233080003</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04916822658596</v>
+        <v>1.048249604907129</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043675547244459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042532391996829</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023740862536058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004332576940839</v>
+        <v>1.003921610237843</v>
       </c>
       <c r="D10">
-        <v>1.027855052687868</v>
+        <v>1.026867635115478</v>
       </c>
       <c r="E10">
-        <v>1.024583123309254</v>
+        <v>1.024112079416404</v>
       </c>
       <c r="F10">
-        <v>1.032731773093201</v>
+        <v>1.032123294230833</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052243017599209</v>
+        <v>1.051743229437103</v>
       </c>
       <c r="J10">
-        <v>1.032375345851556</v>
+        <v>1.031980495516537</v>
       </c>
       <c r="K10">
-        <v>1.041738951992441</v>
+        <v>1.040768158817648</v>
       </c>
       <c r="L10">
-        <v>1.038522268130538</v>
+        <v>1.038059215192457</v>
       </c>
       <c r="M10">
-        <v>1.046534167133066</v>
+        <v>1.045935803693093</v>
       </c>
       <c r="N10">
-        <v>1.013233399007487</v>
+        <v>1.015069336738321</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045452052786499</v>
+        <v>1.044978520359461</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040619770503803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039945701703068</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022890077627807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001686995317747</v>
+        <v>1.001462951572477</v>
       </c>
       <c r="D11">
-        <v>1.026207874883729</v>
+        <v>1.025408544123497</v>
       </c>
       <c r="E11">
-        <v>1.022576830843555</v>
+        <v>1.022282006772859</v>
       </c>
       <c r="F11">
-        <v>1.03123412291642</v>
+        <v>1.030784616694673</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051687027780625</v>
+        <v>1.051282691005259</v>
       </c>
       <c r="J11">
-        <v>1.030989761327208</v>
+        <v>1.03077499643892</v>
       </c>
       <c r="K11">
-        <v>1.040651913569268</v>
+        <v>1.039866689552909</v>
       </c>
       <c r="L11">
-        <v>1.037085181213122</v>
+        <v>1.036795604984659</v>
       </c>
       <c r="M11">
-        <v>1.045590106157916</v>
+        <v>1.04514842961619</v>
       </c>
       <c r="N11">
-        <v>1.012990013801072</v>
+        <v>1.015124176522217</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045137822717848</v>
+        <v>1.044788462042898</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039883817648163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039344170546042</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022798088576004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001069325282343</v>
+        <v>1.000841781137143</v>
       </c>
       <c r="D12">
-        <v>1.02589975860833</v>
+        <v>1.025109759205739</v>
       </c>
       <c r="E12">
-        <v>1.022218371705019</v>
+        <v>1.02192198353697</v>
       </c>
       <c r="F12">
-        <v>1.031104986279153</v>
+        <v>1.030660090632033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051632477025872</v>
+        <v>1.051232946722729</v>
       </c>
       <c r="J12">
-        <v>1.030828498188579</v>
+        <v>1.030610557951007</v>
       </c>
       <c r="K12">
-        <v>1.040547031209564</v>
+        <v>1.039771204771444</v>
       </c>
       <c r="L12">
-        <v>1.036931933062756</v>
+        <v>1.036640908812977</v>
       </c>
       <c r="M12">
-        <v>1.045659578867037</v>
+        <v>1.04522255720673</v>
       </c>
       <c r="N12">
-        <v>1.013129934475631</v>
+        <v>1.015297317480482</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045516898433518</v>
+        <v>1.04517133512872</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039809663337434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039276661850713</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02285624596525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002002803159794</v>
+        <v>1.001602500429194</v>
       </c>
       <c r="D13">
-        <v>1.026630901159525</v>
+        <v>1.025697115793745</v>
       </c>
       <c r="E13">
-        <v>1.02313442942625</v>
+        <v>1.02267932440565</v>
       </c>
       <c r="F13">
-        <v>1.032053033400857</v>
+        <v>1.031478152147388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051980623305597</v>
+        <v>1.051508341622758</v>
       </c>
       <c r="J13">
-        <v>1.031630330026599</v>
+        <v>1.031246820501555</v>
       </c>
       <c r="K13">
-        <v>1.041222698753332</v>
+        <v>1.040305582211688</v>
       </c>
       <c r="L13">
-        <v>1.037788845027509</v>
+        <v>1.037341931374194</v>
       </c>
       <c r="M13">
-        <v>1.046548814169121</v>
+        <v>1.045984051075</v>
       </c>
       <c r="N13">
-        <v>1.013592948831517</v>
+        <v>1.015545790256961</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046494903019814</v>
+        <v>1.046048442382951</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040284900877523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039651754188865</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023042092593866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00335504461821</v>
+        <v>1.00276082287934</v>
       </c>
       <c r="D14">
-        <v>1.02761130683055</v>
+        <v>1.026510715305339</v>
       </c>
       <c r="E14">
-        <v>1.024349384965424</v>
+        <v>1.023715327983813</v>
       </c>
       <c r="F14">
-        <v>1.033201764711463</v>
+        <v>1.032477836327753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052405376701108</v>
+        <v>1.051848628880428</v>
       </c>
       <c r="J14">
-        <v>1.03262436843984</v>
+        <v>1.032054688321739</v>
       </c>
       <c r="K14">
-        <v>1.042046958017948</v>
+        <v>1.040965753793622</v>
       </c>
       <c r="L14">
-        <v>1.038842653332423</v>
+        <v>1.038219851369772</v>
       </c>
       <c r="M14">
-        <v>1.047539763364793</v>
+        <v>1.046828403207708</v>
       </c>
       <c r="N14">
-        <v>1.014061359481532</v>
+        <v>1.015756176405932</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047450546150363</v>
+        <v>1.046888271563918</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040869085996997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040120055338315</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023230910916043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004033177098766</v>
+        <v>1.003354452735293</v>
       </c>
       <c r="D15">
-        <v>1.028088021036665</v>
+        <v>1.026913156006781</v>
       </c>
       <c r="E15">
-        <v>1.024936632456915</v>
+        <v>1.024224312900329</v>
       </c>
       <c r="F15">
-        <v>1.033732786704967</v>
+        <v>1.032942969613216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052602484478969</v>
+        <v>1.052008101250012</v>
       </c>
       <c r="J15">
-        <v>1.033089048805626</v>
+        <v>1.032438096753445</v>
       </c>
       <c r="K15">
-        <v>1.04242989297874</v>
+        <v>1.041275559875326</v>
       </c>
       <c r="L15">
-        <v>1.039333715687965</v>
+        <v>1.03863393676822</v>
       </c>
       <c r="M15">
-        <v>1.04797685220573</v>
+        <v>1.047200637036722</v>
       </c>
       <c r="N15">
-        <v>1.014253252873736</v>
+        <v>1.015832657864796</v>
       </c>
       <c r="O15">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P15">
-        <v>1.047833355054224</v>
+        <v>1.047219833586084</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041145655638105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040345489076569</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023309907625446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007365910554861</v>
+        <v>1.006342929078276</v>
       </c>
       <c r="D16">
-        <v>1.030355543972697</v>
+        <v>1.028866245864269</v>
       </c>
       <c r="E16">
-        <v>1.027728770731398</v>
+        <v>1.026695411673435</v>
       </c>
       <c r="F16">
-        <v>1.036150594361074</v>
+        <v>1.035085856038647</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053490128725336</v>
+        <v>1.052736214210647</v>
       </c>
       <c r="J16">
-        <v>1.035214439426528</v>
+        <v>1.034231141231518</v>
       </c>
       <c r="K16">
-        <v>1.044162393911931</v>
+        <v>1.042697956293225</v>
       </c>
       <c r="L16">
-        <v>1.041579531315695</v>
+        <v>1.040563525888208</v>
       </c>
       <c r="M16">
-        <v>1.049861583543332</v>
+        <v>1.048814354402109</v>
       </c>
       <c r="N16">
-        <v>1.014986325759278</v>
+        <v>1.016097169699114</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04928457137137</v>
+        <v>1.048456816150405</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042373710633606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041354586063137</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023623196128219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009215351472625</v>
+        <v>1.00804258458862</v>
       </c>
       <c r="D17">
-        <v>1.031582502308447</v>
+        <v>1.029948052333686</v>
       </c>
       <c r="E17">
-        <v>1.029235212342126</v>
+        <v>1.028060704984879</v>
       </c>
       <c r="F17">
-        <v>1.037400665749171</v>
+        <v>1.036212044156032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053945280919025</v>
+        <v>1.053117577884883</v>
       </c>
       <c r="J17">
-        <v>1.036323946097914</v>
+        <v>1.03519516831023</v>
       </c>
       <c r="K17">
-        <v>1.045058544736814</v>
+        <v>1.043450597705581</v>
       </c>
       <c r="L17">
-        <v>1.042749350427202</v>
+        <v>1.041593988810773</v>
       </c>
       <c r="M17">
-        <v>1.050783234174173</v>
+        <v>1.049613599461295</v>
       </c>
       <c r="N17">
-        <v>1.015304150800649</v>
+        <v>1.016221027730329</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049884912537197</v>
+        <v>1.04896031358303</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043009872565184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041889528535269</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02376630872457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009931413358699</v>
+        <v>1.008751165278634</v>
       </c>
       <c r="D18">
-        <v>1.031994885763023</v>
+        <v>1.030340113448237</v>
       </c>
       <c r="E18">
-        <v>1.029734410994661</v>
+        <v>1.028550741535677</v>
       </c>
       <c r="F18">
-        <v>1.037711550231316</v>
+        <v>1.036509634938701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054056136458166</v>
+        <v>1.053217966943998</v>
       </c>
       <c r="J18">
-        <v>1.036624403948552</v>
+        <v>1.03548759259039</v>
       </c>
       <c r="K18">
-        <v>1.045283290271561</v>
+        <v>1.043654910973445</v>
       </c>
       <c r="L18">
-        <v>1.043058896445684</v>
+        <v>1.041894201468305</v>
       </c>
       <c r="M18">
-        <v>1.050909604666014</v>
+        <v>1.049726579375987</v>
       </c>
       <c r="N18">
-        <v>1.015269250512212</v>
+        <v>1.016177303918589</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049748975499746</v>
+        <v>1.048813598973165</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043157240554978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042021311236561</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023758668304914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009647853061956</v>
+        <v>1.008574855900335</v>
       </c>
       <c r="D19">
-        <v>1.031695284771483</v>
+        <v>1.030123578599454</v>
       </c>
       <c r="E19">
-        <v>1.029343246143924</v>
+        <v>1.028257411023553</v>
       </c>
       <c r="F19">
-        <v>1.037190197709917</v>
+        <v>1.036065441541531</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053870753393688</v>
+        <v>1.053074613354489</v>
       </c>
       <c r="J19">
-        <v>1.036218739440821</v>
+        <v>1.035185026629265</v>
       </c>
       <c r="K19">
-        <v>1.044926725404895</v>
+        <v>1.04337996997897</v>
       </c>
       <c r="L19">
-        <v>1.042612061532282</v>
+        <v>1.041543554682503</v>
       </c>
       <c r="M19">
-        <v>1.050335166931633</v>
+        <v>1.049228015136157</v>
       </c>
       <c r="N19">
-        <v>1.014941102919587</v>
+        <v>1.015976202887358</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048972113948966</v>
+        <v>1.048096446644049</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042911480884273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041833889443071</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023622533641761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006540157456314</v>
+        <v>1.00589837666431</v>
       </c>
       <c r="D20">
-        <v>1.029379938635064</v>
+        <v>1.028182419886629</v>
       </c>
       <c r="E20">
-        <v>1.026449923129537</v>
+        <v>1.025763793886829</v>
       </c>
       <c r="F20">
-        <v>1.034355841864889</v>
+        <v>1.033563580753092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052847865261705</v>
+        <v>1.052241497457264</v>
       </c>
       <c r="J20">
-        <v>1.033821274313496</v>
+        <v>1.033203804118469</v>
       </c>
       <c r="K20">
-        <v>1.042925127646158</v>
+        <v>1.041747178625855</v>
       </c>
       <c r="L20">
-        <v>1.04004309809357</v>
+        <v>1.039368256802838</v>
       </c>
       <c r="M20">
-        <v>1.047820337980313</v>
+        <v>1.047040858005065</v>
       </c>
       <c r="N20">
-        <v>1.013776323938177</v>
+        <v>1.015317275635525</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046459451902013</v>
+        <v>1.045842580587949</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041500199025745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040683761192318</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02312150539165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.000102016208599</v>
+        <v>1.000212926168704</v>
       </c>
       <c r="D21">
-        <v>1.024948213485618</v>
+        <v>1.024425144328049</v>
       </c>
       <c r="E21">
-        <v>1.020986571048976</v>
+        <v>1.020999824762678</v>
       </c>
       <c r="F21">
-        <v>1.029558892565595</v>
+        <v>1.02936188122584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051079316299204</v>
+        <v>1.050814753041711</v>
       </c>
       <c r="J21">
-        <v>1.029595472785676</v>
+        <v>1.029701747723563</v>
       </c>
       <c r="K21">
-        <v>1.039471863145357</v>
+        <v>1.038958093727142</v>
       </c>
       <c r="L21">
-        <v>1.035580963639745</v>
+        <v>1.035593979493207</v>
       </c>
       <c r="M21">
-        <v>1.044001097866909</v>
+        <v>1.043807547253097</v>
       </c>
       <c r="N21">
-        <v>1.012198942035518</v>
+        <v>1.014766208471876</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043396302297237</v>
+        <v>1.043243120559767</v>
       </c>
       <c r="Q21">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R21">
-        <v>1.039061871978516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038715368267173</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022477898968533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995990819994227</v>
+        <v>0.9965850017227403</v>
       </c>
       <c r="D22">
-        <v>1.022127190386274</v>
+        <v>1.022036918745191</v>
       </c>
       <c r="E22">
-        <v>1.017518245905181</v>
+        <v>1.017979478556179</v>
       </c>
       <c r="F22">
-        <v>1.026531648201096</v>
+        <v>1.026716789044147</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04994132172202</v>
+        <v>1.049895694921866</v>
       </c>
       <c r="J22">
-        <v>1.026907994082304</v>
+        <v>1.027475817628733</v>
       </c>
       <c r="K22">
-        <v>1.037272688690723</v>
+        <v>1.037184105910711</v>
       </c>
       <c r="L22">
-        <v>1.032750471908465</v>
+        <v>1.033202979207705</v>
       </c>
       <c r="M22">
-        <v>1.041595215382682</v>
+        <v>1.041776932330223</v>
       </c>
       <c r="N22">
-        <v>1.011201797514759</v>
+        <v>1.01441604111517</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041492212737155</v>
+        <v>1.04163602930546</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037493554246282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037446384907965</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022070593226904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.998159446450289</v>
+        <v>0.9984789651136623</v>
       </c>
       <c r="D23">
-        <v>1.023609543346551</v>
+        <v>1.02327575932492</v>
       </c>
       <c r="E23">
-        <v>1.019345069212715</v>
+        <v>1.019552100234246</v>
       </c>
       <c r="F23">
-        <v>1.028126305378048</v>
+        <v>1.028095065363804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05053876293569</v>
+        <v>1.050369993596266</v>
       </c>
       <c r="J23">
-        <v>1.028319391401345</v>
+        <v>1.0286251737795</v>
       </c>
       <c r="K23">
-        <v>1.038425035033398</v>
+        <v>1.038097330712864</v>
       </c>
       <c r="L23">
-        <v>1.034238626327117</v>
+        <v>1.034441847790036</v>
       </c>
       <c r="M23">
-        <v>1.04286003103899</v>
+        <v>1.042829353349717</v>
       </c>
       <c r="N23">
-        <v>1.011718464918792</v>
+        <v>1.01454445343574</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042493227458503</v>
+        <v>1.042468948190813</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038298714721869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038081532738706</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02227366915155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006515474998283</v>
+        <v>1.005890215538535</v>
       </c>
       <c r="D24">
-        <v>1.02933991461451</v>
+        <v>1.028154366981988</v>
       </c>
       <c r="E24">
-        <v>1.026405028203563</v>
+        <v>1.025733900739974</v>
       </c>
       <c r="F24">
-        <v>1.034292839282697</v>
+        <v>1.033512202753853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05281948027233</v>
+        <v>1.052219165232037</v>
       </c>
       <c r="J24">
-        <v>1.033765003522489</v>
+        <v>1.03316339671259</v>
       </c>
       <c r="K24">
-        <v>1.042870661134741</v>
+        <v>1.041704464471782</v>
       </c>
       <c r="L24">
-        <v>1.039983784072284</v>
+        <v>1.039323684661526</v>
       </c>
       <c r="M24">
-        <v>1.047743357879688</v>
+        <v>1.04697530066027</v>
       </c>
       <c r="N24">
-        <v>1.013722425306292</v>
+        <v>1.015282252432248</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046358032348312</v>
+        <v>1.045750171192722</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041434489400153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040623686789826</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023096573343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015799066737639</v>
+        <v>1.01442092235098</v>
       </c>
       <c r="D25">
-        <v>1.035723277421256</v>
+        <v>1.033809344738531</v>
       </c>
       <c r="E25">
-        <v>1.034282282463116</v>
+        <v>1.032902038366388</v>
       </c>
       <c r="F25">
-        <v>1.041181420780281</v>
+        <v>1.039784462654514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055293516788967</v>
+        <v>1.054322711672987</v>
       </c>
       <c r="J25">
-        <v>1.039806181728568</v>
+        <v>1.038472524091241</v>
       </c>
       <c r="K25">
-        <v>1.047791237882412</v>
+        <v>1.045904543718883</v>
       </c>
       <c r="L25">
-        <v>1.046370738870542</v>
+        <v>1.045010194498676</v>
       </c>
       <c r="M25">
-        <v>1.053172397173431</v>
+        <v>1.051795045143971</v>
       </c>
       <c r="N25">
-        <v>1.015941953312309</v>
+        <v>1.016741867808578</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050654705920279</v>
+        <v>1.049564638419682</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044910687254803</v>
+        <v>1.043590141222863</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024085267188709</v>
       </c>
     </row>
   </sheetData>
